--- a/Tomczak/dok/Crestron CI-KNX.xlsx
+++ b/Tomczak/dok/Crestron CI-KNX.xlsx
@@ -2053,7 +2053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,12 +2063,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,7 +2080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,7 +2242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2298,43 +2292,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,28 +2358,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2406,10 +2379,16 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2417,10 +2396,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2429,20 +2423,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2748,18 +2736,18 @@
   <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D12"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="29" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2767,1035 +2755,1035 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>536</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="55" t="s">
         <v>522</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="55" t="s">
         <v>539</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="55" t="s">
         <v>546</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="30"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="30"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="30"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="30"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="30"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="30"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="30"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="30"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="30"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="55" t="s">
         <v>528</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="30"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="30"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="30"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="30"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="30"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="30"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="30"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="30"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="30"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>44</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="30"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="19"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="30"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="19"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>46</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="55" t="s">
         <v>545</v>
       </c>
-      <c r="E48" s="58" t="s">
+      <c r="E48" s="55" t="s">
         <v>525</v>
       </c>
-      <c r="F48" s="30"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="19"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>47</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="30"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>48</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="30"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="19"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>49</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="30"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="19"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>50</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="66"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="19"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="18">
         <v>51</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="55" t="s">
         <v>396</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="30"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="A54" s="18">
         <v>52</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="37" t="s">
         <v>165</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="59"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="31"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H54" s="19"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
+      <c r="A55" s="18">
         <v>53</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="38" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="55" t="s">
         <v>397</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="31"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H55" s="19"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="A56" s="18">
         <v>54</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="31"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H56" s="19"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="18">
         <v>55</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="55" t="s">
         <v>398</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="37"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="19"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="A58" s="18">
         <v>56</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="37" t="s">
         <v>173</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="37"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="19"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="A59" s="18">
         <v>57</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="37" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="55" t="s">
         <v>399</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="37"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="18">
         <v>58</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="59"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="37"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H60" s="19"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+      <c r="A61" s="18">
         <v>59</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="37" t="s">
         <v>177</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -3807,17 +3795,17 @@
       <c r="E61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="30"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H61" s="19"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+      <c r="A62" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3829,93 +3817,93 @@
       <c r="E62" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F62" s="38"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H62" s="19"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+      <c r="A63" s="18">
         <v>61</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="55" t="s">
         <v>401</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="30"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+      <c r="A64" s="18">
         <v>62</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="37" t="s">
         <v>183</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="59"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="30"/>
+      <c r="F64" s="27"/>
       <c r="G64" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+      <c r="A65" s="18">
         <v>63</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="37" t="s">
         <v>185</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="55" t="s">
         <v>402</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="30"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H65" s="19"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="18">
         <v>64</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="37" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="59"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="30"/>
+      <c r="F66" s="27"/>
       <c r="G66" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="19"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="A67" s="18">
         <v>65</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="37" t="s">
         <v>189</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -3927,17 +3915,17 @@
       <c r="E67" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F67" s="30"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H67" s="19"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
+      <c r="A68" s="18">
         <v>66</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="37" t="s">
         <v>192</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -3949,207 +3937,207 @@
       <c r="E68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="30"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H68" s="19"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+      <c r="A69" s="18">
         <v>67</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="37" t="s">
         <v>194</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="55" t="s">
         <v>405</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="37"/>
+      <c r="F69" s="34"/>
       <c r="G69" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H69" s="19"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="A70" s="18">
         <v>68</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="59"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="37"/>
+      <c r="F70" s="34"/>
       <c r="G70" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H70" s="19"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
+      <c r="A71" s="18">
         <v>69</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="37" t="s">
         <v>200</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="55" t="s">
         <v>407</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="37"/>
+      <c r="F71" s="34"/>
       <c r="G71" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H71" s="19"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
+      <c r="A72" s="18">
         <v>70</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="37" t="s">
         <v>201</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="59"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="37"/>
+      <c r="F72" s="34"/>
       <c r="G72" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H72" s="19"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="A73" s="18">
         <v>71</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="37" t="s">
         <v>202</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="55" t="s">
         <v>408</v>
       </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="37"/>
+      <c r="F73" s="34"/>
       <c r="G73" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
+      <c r="A74" s="18">
         <v>72</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="37" t="s">
         <v>205</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="59"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="37"/>
+      <c r="F74" s="34"/>
       <c r="G74" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H74" s="19"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
+      <c r="A75" s="18">
         <v>73</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="37" t="s">
         <v>206</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="55" t="s">
         <v>409</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="37"/>
+      <c r="F75" s="34"/>
       <c r="G75" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="H75" s="19"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
+      <c r="A76" s="18">
         <v>74</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="59"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="37"/>
+      <c r="F76" s="34"/>
       <c r="G76" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="H76" s="19"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <v>75</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="37" t="s">
         <v>210</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="55" t="s">
         <v>410</v>
       </c>
       <c r="E77" s="7"/>
-      <c r="F77" s="37"/>
+      <c r="F77" s="34"/>
       <c r="G77" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H77" s="19"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
+      <c r="A78" s="18">
         <v>76</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="37" t="s">
         <v>213</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="59"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="37"/>
+      <c r="F78" s="34"/>
       <c r="G78" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
+      <c r="A79" s="18">
         <v>77</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="37" t="s">
         <v>214</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -4161,17 +4149,17 @@
       <c r="E79" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="30"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="21">
+      <c r="A80" s="18">
         <v>78</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="37" t="s">
         <v>216</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -4183,17 +4171,17 @@
       <c r="E80" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F80" s="30"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H80" s="19"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
+      <c r="A81" s="18">
         <v>79</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="37" t="s">
         <v>218</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -4205,17 +4193,17 @@
       <c r="E81" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F81" s="30"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="21">
+      <c r="A82" s="18">
         <v>80</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="37" t="s">
         <v>220</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -4227,169 +4215,169 @@
       <c r="E82" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F82" s="30"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H82" s="19"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
+      <c r="A83" s="18">
         <v>81</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D83" s="55" t="s">
         <v>414</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="37"/>
+      <c r="F83" s="34"/>
       <c r="G83" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
+      <c r="A84" s="18">
         <v>82</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="37" t="s">
         <v>224</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="59"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="37"/>
+      <c r="F84" s="34"/>
       <c r="G84" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="19"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="21">
+      <c r="A85" s="18">
         <v>83</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="37" t="s">
         <v>226</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="55" t="s">
         <v>416</v>
       </c>
       <c r="E85" s="7"/>
-      <c r="F85" s="37"/>
+      <c r="F85" s="34"/>
       <c r="G85" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
+      <c r="A86" s="18">
         <v>84</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="37" t="s">
         <v>228</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="59"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="37"/>
+      <c r="F86" s="34"/>
       <c r="G86" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H86" s="19"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
+      <c r="A87" s="18">
         <v>85</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="37" t="s">
         <v>230</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="55" t="s">
         <v>417</v>
       </c>
       <c r="E87" s="7"/>
-      <c r="F87" s="30"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H87" s="19"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
+      <c r="A88" s="18">
         <v>86</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="37" t="s">
         <v>231</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="59"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="30"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H88" s="19"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
+      <c r="A89" s="18">
         <v>87</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="37" t="s">
         <v>234</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D89" s="55" t="s">
         <v>418</v>
       </c>
       <c r="E89" s="7"/>
-      <c r="F89" s="37"/>
+      <c r="F89" s="34"/>
       <c r="G89" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H89" s="19"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
+      <c r="A90" s="18">
         <v>88</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="37" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="59"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="37"/>
+      <c r="F90" s="34"/>
       <c r="G90" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H90" s="19"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
+      <c r="A91" s="18">
         <v>89</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="37" t="s">
         <v>238</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -4401,17 +4389,17 @@
       <c r="E91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="30"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H91" s="19"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
+      <c r="A92" s="18">
         <v>90</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="37" t="s">
         <v>240</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -4423,17 +4411,17 @@
       <c r="E92" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F92" s="30"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H92" s="19"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
+      <c r="A93" s="18">
         <v>91</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="37" t="s">
         <v>241</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -4445,131 +4433,131 @@
       <c r="E93" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F93" s="30"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H93" s="19"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="21">
+      <c r="A94" s="18">
         <v>92</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="37" t="s">
         <v>242</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="58" t="s">
+      <c r="D94" s="55" t="s">
         <v>421</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="30"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H94" s="19"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
+      <c r="A95" s="18">
         <v>93</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="37" t="s">
         <v>243</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="59"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="30"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H95" s="19"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="21">
+      <c r="A96" s="18">
         <v>94</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="37" t="s">
         <v>248</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D96" s="55" t="s">
         <v>422</v>
       </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="30"/>
+      <c r="F96" s="27"/>
       <c r="G96" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H96" s="19"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="21">
+      <c r="A97" s="18">
         <v>95</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="37" t="s">
         <v>249</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="59"/>
+      <c r="D97" s="57"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="30"/>
+      <c r="F97" s="27"/>
       <c r="G97" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H97" s="19"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="21">
+      <c r="A98" s="18">
         <v>96</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="37" t="s">
         <v>250</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D98" s="55" t="s">
         <v>423</v>
       </c>
       <c r="E98" s="7"/>
-      <c r="F98" s="37"/>
+      <c r="F98" s="34"/>
       <c r="G98" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H98" s="19"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
+      <c r="A99" s="18">
         <v>97</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="37" t="s">
         <v>254</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="59"/>
+      <c r="D99" s="57"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="37"/>
+      <c r="F99" s="34"/>
       <c r="G99" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H99" s="19"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
+      <c r="A100" s="18">
         <v>98</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="37" t="s">
         <v>251</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -4581,233 +4569,233 @@
       <c r="E100" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="30"/>
+      <c r="F100" s="27"/>
       <c r="G100" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H100" s="19"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
+      <c r="A101" s="18">
         <v>99</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="58" t="s">
+      <c r="D101" s="55" t="s">
         <v>425</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="30"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
+      <c r="A102" s="18">
         <v>100</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="59"/>
+      <c r="D102" s="57"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="30"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="21">
+      <c r="A103" s="18">
         <v>101</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="58" t="s">
+      <c r="D103" s="55" t="s">
         <v>426</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="30"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="21">
+      <c r="A104" s="18">
         <v>102</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="59"/>
+      <c r="D104" s="57"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="30"/>
+      <c r="F104" s="27"/>
       <c r="G104" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
+      <c r="A105" s="18">
         <v>103</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="55" t="s">
         <v>428</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="30"/>
+      <c r="F105" s="27"/>
       <c r="G105" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
+      <c r="A106" s="18">
         <v>104</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="59"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="30"/>
+      <c r="F106" s="27"/>
       <c r="G106" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="21">
+      <c r="A107" s="18">
         <v>105</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="55" t="s">
         <v>427</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="30"/>
+      <c r="F107" s="27"/>
       <c r="G107" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
+      <c r="A108" s="18">
         <v>106</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="59"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="30"/>
+      <c r="F108" s="27"/>
       <c r="G108" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="21">
+      <c r="A109" s="18">
         <v>107</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="58" t="s">
+      <c r="D109" s="55" t="s">
         <v>429</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="37"/>
+      <c r="F109" s="34"/>
       <c r="G109" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="21">
+      <c r="A110" s="18">
         <v>108</v>
       </c>
-      <c r="B110" s="40" t="s">
+      <c r="B110" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="59"/>
+      <c r="D110" s="57"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="37"/>
+      <c r="F110" s="34"/>
       <c r="G110" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="21">
+      <c r="A111" s="18">
         <v>109</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D111" s="55" t="s">
         <v>430</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="30"/>
+      <c r="F111" s="27"/>
       <c r="G111" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="21">
+      <c r="A112" s="18">
         <v>110</v>
       </c>
-      <c r="B112" s="40" t="s">
+      <c r="B112" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="59"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="30"/>
+      <c r="F112" s="27"/>
       <c r="G112" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="21">
+      <c r="A113" s="18">
         <v>111</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -4819,16 +4807,16 @@
       <c r="E113" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F113" s="30"/>
+      <c r="F113" s="27"/>
       <c r="G113" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21">
+      <c r="A114" s="18">
         <v>112</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="37" t="s">
         <v>533</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -4836,16 +4824,16 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="30"/>
+      <c r="F114" s="27"/>
       <c r="G114" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="21">
+      <c r="A115" s="18">
         <v>113</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -4857,33 +4845,33 @@
       <c r="E115" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F115" s="30"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21">
+      <c r="A116" s="18">
         <v>114</v>
       </c>
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="37" t="s">
         <v>596</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="62" t="s">
         <v>606</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116" s="30"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
+      <c r="A117" s="18">
         <v>115</v>
       </c>
-      <c r="B117" s="40" t="s">
+      <c r="B117" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -4895,16 +4883,16 @@
       <c r="E117" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F117" s="33"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
+      <c r="A118" s="18">
         <v>116</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="37" t="s">
         <v>597</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -4914,14 +4902,14 @@
         <v>606</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="30"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
+      <c r="A119" s="18">
         <v>117</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -4933,33 +4921,33 @@
       <c r="E119" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F119" s="33"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
+      <c r="A120" s="18">
         <v>118</v>
       </c>
-      <c r="B120" s="40" t="s">
+      <c r="B120" s="37" t="s">
         <v>598</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="62" t="s">
         <v>607</v>
       </c>
       <c r="E120" s="6"/>
-      <c r="F120" s="30"/>
+      <c r="F120" s="27"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="21">
+      <c r="A121" s="18">
         <v>119</v>
       </c>
-      <c r="B121" s="40" t="s">
+      <c r="B121" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -4971,16 +4959,16 @@
       <c r="E121" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F121" s="33"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21">
+      <c r="A122" s="18">
         <v>120</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="37" t="s">
         <v>599</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -4990,14 +4978,14 @@
         <v>607</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="30"/>
+      <c r="F122" s="27"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="21">
+      <c r="A123" s="18">
         <v>121</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B123" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -5009,175 +4997,175 @@
       <c r="E123" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F123" s="30"/>
+      <c r="F123" s="27"/>
       <c r="G123" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21">
+      <c r="A124" s="18">
         <v>122</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="37" t="s">
         <v>600</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="62" t="s">
         <v>608</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="30"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="12"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="21">
+      <c r="A125" s="18">
         <v>123</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="58" t="s">
+      <c r="D125" s="55" t="s">
         <v>437</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="33"/>
+      <c r="F125" s="30"/>
       <c r="G125" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
+      <c r="A126" s="18">
         <v>124</v>
       </c>
-      <c r="B126" s="40" t="s">
+      <c r="B126" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="59"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="33"/>
+      <c r="F126" s="30"/>
       <c r="G126" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="21">
+      <c r="A127" s="18">
         <v>125</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="58" t="s">
+      <c r="D127" s="55" t="s">
         <v>438</v>
       </c>
       <c r="E127" s="9"/>
-      <c r="F127" s="33"/>
+      <c r="F127" s="30"/>
       <c r="G127" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="21">
+      <c r="A128" s="18">
         <v>126</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="59"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="33"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="21">
+      <c r="A129" s="18">
         <v>127</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="55" t="s">
         <v>439</v>
       </c>
       <c r="E129" s="9"/>
-      <c r="F129" s="33"/>
+      <c r="F129" s="30"/>
       <c r="G129" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="21">
+      <c r="A130" s="18">
         <v>128</v>
       </c>
-      <c r="B130" s="40" t="s">
+      <c r="B130" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="59"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="33"/>
+      <c r="F130" s="30"/>
       <c r="G130" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="21">
+      <c r="A131" s="18">
         <v>129</v>
       </c>
-      <c r="B131" s="40" t="s">
+      <c r="B131" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="58" t="s">
+      <c r="D131" s="55" t="s">
         <v>440</v>
       </c>
       <c r="E131" s="9"/>
-      <c r="F131" s="33"/>
+      <c r="F131" s="30"/>
       <c r="G131" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="21">
+      <c r="A132" s="18">
         <v>130</v>
       </c>
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="59"/>
+      <c r="D132" s="57"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="33"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="21">
+      <c r="A133" s="18">
         <v>131</v>
       </c>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -5187,16 +5175,16 @@
         <v>605</v>
       </c>
       <c r="E133" s="6"/>
-      <c r="F133" s="30"/>
+      <c r="F133" s="27"/>
       <c r="G133" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="21">
+      <c r="A134" s="18">
         <v>132</v>
       </c>
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C134" s="6" t="s">
@@ -5208,16 +5196,16 @@
       <c r="E134" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F134" s="30"/>
+      <c r="F134" s="27"/>
       <c r="G134" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
+      <c r="A135" s="18">
         <v>133</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="37" t="s">
         <v>601</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -5227,16 +5215,16 @@
         <v>605</v>
       </c>
       <c r="E135" s="6"/>
-      <c r="F135" s="37"/>
+      <c r="F135" s="34"/>
       <c r="G135" s="12" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="21">
+      <c r="A136" s="18">
         <v>134</v>
       </c>
-      <c r="B136" s="40" t="s">
+      <c r="B136" s="37" t="s">
         <v>602</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -5246,36 +5234,36 @@
         <v>608</v>
       </c>
       <c r="E136" s="6"/>
-      <c r="F136" s="37"/>
+      <c r="F136" s="34"/>
       <c r="G136" s="12"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="21">
+      <c r="A137" s="18">
         <v>135</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="42"/>
-      <c r="G137" s="18"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="21">
+      <c r="A138" s="18">
         <v>136</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="18"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="21">
+      <c r="A139" s="18">
         <v>137</v>
       </c>
-      <c r="B139" s="40" t="s">
+      <c r="B139" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -5287,16 +5275,16 @@
       <c r="E139" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F139" s="33"/>
+      <c r="F139" s="30"/>
       <c r="G139" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="21">
+      <c r="A140" s="18">
         <v>138</v>
       </c>
-      <c r="B140" s="40" t="s">
+      <c r="B140" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -5306,56 +5294,56 @@
       <c r="E140" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F140" s="30"/>
+      <c r="F140" s="27"/>
       <c r="G140" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="21">
+      <c r="A141" s="18">
         <v>139</v>
       </c>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="62" t="s">
+      <c r="D141" s="58" t="s">
         <v>443</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F141" s="37"/>
+      <c r="F141" s="34"/>
       <c r="G141" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="21">
+      <c r="A142" s="18">
         <v>140</v>
       </c>
-      <c r="B142" s="40" t="s">
+      <c r="B142" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="63"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F142" s="37"/>
+      <c r="F142" s="34"/>
       <c r="G142" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="21">
+      <c r="A143" s="18">
         <v>141</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -5367,16 +5355,16 @@
       <c r="E143" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F143" s="30"/>
+      <c r="F143" s="27"/>
       <c r="G143" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="21">
+      <c r="A144" s="18">
         <v>142</v>
       </c>
-      <c r="B144" s="40" t="s">
+      <c r="B144" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -5388,16 +5376,16 @@
       <c r="E144" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F144" s="30"/>
+      <c r="F144" s="27"/>
       <c r="G144" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="21">
+      <c r="A145" s="18">
         <v>143</v>
       </c>
-      <c r="B145" s="40" t="s">
+      <c r="B145" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -5409,16 +5397,16 @@
       <c r="E145" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F145" s="30"/>
+      <c r="F145" s="27"/>
       <c r="G145" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="21">
+      <c r="A146" s="18">
         <v>144</v>
       </c>
-      <c r="B146" s="40" t="s">
+      <c r="B146" s="37" t="s">
         <v>92</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -5430,16 +5418,16 @@
       <c r="E146" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F146" s="30"/>
+      <c r="F146" s="27"/>
       <c r="G146" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="21">
+      <c r="A147" s="18">
         <v>145</v>
       </c>
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -5451,16 +5439,16 @@
       <c r="E147" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F147" s="37"/>
+      <c r="F147" s="34"/>
       <c r="G147" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="21">
+      <c r="A148" s="18">
         <v>146</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B148" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="9" t="s">
@@ -5472,16 +5460,16 @@
       <c r="E148" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F148" s="37"/>
+      <c r="F148" s="34"/>
       <c r="G148" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="21">
+      <c r="A149" s="18">
         <v>147</v>
       </c>
-      <c r="B149" s="40" t="s">
+      <c r="B149" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -5493,16 +5481,16 @@
       <c r="E149" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F149" s="30"/>
+      <c r="F149" s="27"/>
       <c r="G149" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="21">
+      <c r="A150" s="18">
         <v>148</v>
       </c>
-      <c r="B150" s="40" t="s">
+      <c r="B150" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -5514,16 +5502,16 @@
       <c r="E150" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="F150" s="30"/>
+      <c r="F150" s="27"/>
       <c r="G150" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="21">
+      <c r="A151" s="18">
         <v>149</v>
       </c>
-      <c r="B151" s="40" t="s">
+      <c r="B151" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -5533,16 +5521,16 @@
         <v>452</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="30"/>
+      <c r="F151" s="27"/>
       <c r="G151" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="21">
+      <c r="A152" s="18">
         <v>150</v>
       </c>
-      <c r="B152" s="40" t="s">
+      <c r="B152" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C152" s="9" t="s">
@@ -5552,16 +5540,16 @@
         <v>453</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="30"/>
+      <c r="F152" s="27"/>
       <c r="G152" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="21">
+      <c r="A153" s="18">
         <v>151</v>
       </c>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -5571,16 +5559,16 @@
         <v>454</v>
       </c>
       <c r="E153" s="9"/>
-      <c r="F153" s="30"/>
+      <c r="F153" s="27"/>
       <c r="G153" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="21">
+      <c r="A154" s="18">
         <v>152</v>
       </c>
-      <c r="B154" s="40" t="s">
+      <c r="B154" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="9" t="s">
@@ -5590,16 +5578,16 @@
         <v>455</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="30"/>
+      <c r="F154" s="27"/>
       <c r="G154" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="21">
+      <c r="A155" s="18">
         <v>153</v>
       </c>
-      <c r="B155" s="40" t="s">
+      <c r="B155" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C155" s="9" t="s">
@@ -5609,16 +5597,16 @@
         <v>456</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="30"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="21">
+      <c r="A156" s="18">
         <v>154</v>
       </c>
-      <c r="B156" s="40" t="s">
+      <c r="B156" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C156" s="9" t="s">
@@ -5628,16 +5616,16 @@
         <v>457</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="30"/>
+      <c r="F156" s="27"/>
       <c r="G156" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="21">
+      <c r="A157" s="18">
         <v>155</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C157" s="9" t="s">
@@ -5647,16 +5635,16 @@
         <v>458</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="30"/>
+      <c r="F157" s="27"/>
       <c r="G157" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="21">
+      <c r="A158" s="18">
         <v>156</v>
       </c>
-      <c r="B158" s="40" t="s">
+      <c r="B158" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C158" s="9" t="s">
@@ -5666,16 +5654,16 @@
         <v>459</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="30"/>
+      <c r="F158" s="27"/>
       <c r="G158" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="21">
+      <c r="A159" s="18">
         <v>157</v>
       </c>
-      <c r="B159" s="40" t="s">
+      <c r="B159" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -5685,16 +5673,16 @@
         <v>460</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="30"/>
+      <c r="F159" s="27"/>
       <c r="G159" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="21">
+      <c r="A160" s="18">
         <v>158</v>
       </c>
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C160" s="9" t="s">
@@ -5704,16 +5692,16 @@
         <v>461</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="30"/>
+      <c r="F160" s="27"/>
       <c r="G160" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="21">
+      <c r="A161" s="18">
         <v>159</v>
       </c>
-      <c r="B161" s="40" t="s">
+      <c r="B161" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -5723,16 +5711,16 @@
         <v>462</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="30"/>
+      <c r="F161" s="27"/>
       <c r="G161" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="21">
+      <c r="A162" s="18">
         <v>160</v>
       </c>
-      <c r="B162" s="40" t="s">
+      <c r="B162" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -5742,16 +5730,16 @@
         <v>463</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="30"/>
+      <c r="F162" s="27"/>
       <c r="G162" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="21">
+      <c r="A163" s="18">
         <v>161</v>
       </c>
-      <c r="B163" s="40" t="s">
+      <c r="B163" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C163" s="9" t="s">
@@ -5761,16 +5749,16 @@
         <v>464</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="30"/>
+      <c r="F163" s="27"/>
       <c r="G163" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="21">
+      <c r="A164" s="18">
         <v>162</v>
       </c>
-      <c r="B164" s="40" t="s">
+      <c r="B164" s="37" t="s">
         <v>129</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -5780,16 +5768,16 @@
         <v>465</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="30"/>
+      <c r="F164" s="27"/>
       <c r="G164" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="21">
+      <c r="A165" s="18">
         <v>163</v>
       </c>
-      <c r="B165" s="40" t="s">
+      <c r="B165" s="37" t="s">
         <v>133</v>
       </c>
       <c r="C165" s="9" t="s">
@@ -5799,16 +5787,16 @@
         <v>466</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="30"/>
+      <c r="F165" s="27"/>
       <c r="G165" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="21">
+      <c r="A166" s="18">
         <v>164</v>
       </c>
-      <c r="B166" s="40" t="s">
+      <c r="B166" s="37" t="s">
         <v>132</v>
       </c>
       <c r="C166" s="9" t="s">
@@ -5818,16 +5806,16 @@
         <v>467</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="30"/>
+      <c r="F166" s="27"/>
       <c r="G166" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="21">
+      <c r="A167" s="18">
         <v>165</v>
       </c>
-      <c r="B167" s="40" t="s">
+      <c r="B167" s="37" t="s">
         <v>551</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -5837,124 +5825,124 @@
         <v>468</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="30"/>
+      <c r="F167" s="27"/>
       <c r="G167" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="21">
+      <c r="A168" s="18">
         <v>166</v>
       </c>
-      <c r="B168" s="40" t="s">
+      <c r="B168" s="37" t="s">
         <v>136</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="58" t="s">
+      <c r="D168" s="55" t="s">
         <v>469</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="30"/>
+      <c r="F168" s="27"/>
       <c r="G168" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="21">
+      <c r="A169" s="18">
         <v>167</v>
       </c>
-      <c r="B169" s="40" t="s">
+      <c r="B169" s="37" t="s">
         <v>138</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="59"/>
+      <c r="D169" s="57"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="30"/>
+      <c r="F169" s="27"/>
       <c r="G169" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="21">
+      <c r="A170" s="18">
         <v>168</v>
       </c>
-      <c r="B170" s="40" t="s">
+      <c r="B170" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="58" t="s">
+      <c r="D170" s="55" t="s">
         <v>470</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="37"/>
+      <c r="F170" s="34"/>
       <c r="G170" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="21">
+      <c r="A171" s="18">
         <v>169</v>
       </c>
-      <c r="B171" s="40" t="s">
+      <c r="B171" s="37" t="s">
         <v>143</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="59"/>
+      <c r="D171" s="57"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="37"/>
+      <c r="F171" s="34"/>
       <c r="G171" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="21">
+      <c r="A172" s="18">
         <v>170</v>
       </c>
-      <c r="B172" s="40" t="s">
+      <c r="B172" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="58" t="s">
+      <c r="D172" s="55" t="s">
         <v>471</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="30"/>
+      <c r="F172" s="27"/>
       <c r="G172" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="21">
+      <c r="A173" s="18">
         <v>171</v>
       </c>
-      <c r="B173" s="40" t="s">
+      <c r="B173" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="59"/>
+      <c r="D173" s="57"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="30"/>
+      <c r="F173" s="27"/>
       <c r="G173" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="21">
+      <c r="A174" s="18">
         <v>172</v>
       </c>
-      <c r="B174" s="40" t="s">
+      <c r="B174" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -5966,16 +5954,16 @@
       <c r="E174" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F174" s="30"/>
+      <c r="F174" s="27"/>
       <c r="G174" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="21">
+      <c r="A175" s="18">
         <v>173</v>
       </c>
-      <c r="B175" s="40" t="s">
+      <c r="B175" s="37" t="s">
         <v>153</v>
       </c>
       <c r="C175" s="9" t="s">
@@ -5987,16 +5975,16 @@
       <c r="E175" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F175" s="30"/>
+      <c r="F175" s="27"/>
       <c r="G175" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="21">
+      <c r="A176" s="18">
         <v>174</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="37" t="s">
         <v>152</v>
       </c>
       <c r="C176" s="9" t="s">
@@ -6008,16 +5996,16 @@
       <c r="E176" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F176" s="30"/>
+      <c r="F176" s="27"/>
       <c r="G176" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="21">
+      <c r="A177" s="18">
         <v>175</v>
       </c>
-      <c r="B177" s="40" t="s">
+      <c r="B177" s="37" t="s">
         <v>154</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -6029,16 +6017,16 @@
       <c r="E177" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F177" s="30"/>
+      <c r="F177" s="27"/>
       <c r="G177" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="21">
+      <c r="A178" s="18">
         <v>176</v>
       </c>
-      <c r="B178" s="40" t="s">
+      <c r="B178" s="37" t="s">
         <v>156</v>
       </c>
       <c r="C178" s="9" t="s">
@@ -6050,16 +6038,16 @@
       <c r="E178" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F178" s="30"/>
+      <c r="F178" s="27"/>
       <c r="G178" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="21">
+      <c r="A179" s="18">
         <v>177</v>
       </c>
-      <c r="B179" s="40" t="s">
+      <c r="B179" s="37" t="s">
         <v>160</v>
       </c>
       <c r="C179" s="9" t="s">
@@ -6069,16 +6057,16 @@
         <v>478</v>
       </c>
       <c r="E179" s="9"/>
-      <c r="F179" s="30"/>
+      <c r="F179" s="27"/>
       <c r="G179" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="21">
+      <c r="A180" s="18">
         <v>178</v>
       </c>
-      <c r="B180" s="40" t="s">
+      <c r="B180" s="37" t="s">
         <v>161</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -6088,16 +6076,16 @@
         <v>479</v>
       </c>
       <c r="E180" s="9"/>
-      <c r="F180" s="30"/>
+      <c r="F180" s="27"/>
       <c r="G180" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="21">
+      <c r="A181" s="18">
         <v>179</v>
       </c>
-      <c r="B181" s="41" t="s">
+      <c r="B181" s="38" t="s">
         <v>258</v>
       </c>
       <c r="C181" s="6" t="s">
@@ -6109,232 +6097,232 @@
       <c r="E181" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F181" s="30"/>
-      <c r="G181" s="43" t="s">
+      <c r="F181" s="27"/>
+      <c r="G181" s="39" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="21">
+      <c r="A182" s="18">
         <v>180</v>
       </c>
-      <c r="B182" s="40" t="s">
+      <c r="B182" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="58" t="s">
+      <c r="D182" s="63" t="s">
         <v>482</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="37"/>
+      <c r="F182" s="34"/>
       <c r="G182" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="21">
+      <c r="A183" s="18">
         <v>181</v>
       </c>
-      <c r="B183" s="40" t="s">
+      <c r="B183" s="37" t="s">
         <v>269</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="59"/>
+      <c r="D183" s="64"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="37"/>
+      <c r="F183" s="34"/>
       <c r="G183" s="12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="21">
+      <c r="A184" s="18">
         <v>182</v>
       </c>
-      <c r="B184" s="40" t="s">
+      <c r="B184" s="37" t="s">
         <v>262</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="58" t="s">
+      <c r="D184" s="63" t="s">
         <v>483</v>
       </c>
       <c r="E184" s="6"/>
-      <c r="F184" s="37"/>
+      <c r="F184" s="34"/>
       <c r="G184" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="21">
+      <c r="A185" s="18">
         <v>183</v>
       </c>
-      <c r="B185" s="40" t="s">
+      <c r="B185" s="37" t="s">
         <v>271</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="59"/>
+      <c r="D185" s="64"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="37"/>
+      <c r="F185" s="34"/>
       <c r="G185" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="21">
+      <c r="A186" s="18">
         <v>184</v>
       </c>
-      <c r="B186" s="40" t="s">
+      <c r="B186" s="37" t="s">
         <v>264</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="58" t="s">
+      <c r="D186" s="63" t="s">
         <v>484</v>
       </c>
       <c r="E186" s="6"/>
-      <c r="F186" s="37"/>
+      <c r="F186" s="34"/>
       <c r="G186" s="12" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="21">
+      <c r="A187" s="18">
         <v>185</v>
       </c>
-      <c r="B187" s="40" t="s">
+      <c r="B187" s="37" t="s">
         <v>273</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D187" s="59"/>
+      <c r="D187" s="64"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="37"/>
+      <c r="F187" s="34"/>
       <c r="G187" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="21">
+      <c r="A188" s="18">
         <v>186</v>
       </c>
-      <c r="B188" s="40" t="s">
+      <c r="B188" s="37" t="s">
         <v>266</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D188" s="58" t="s">
+      <c r="D188" s="63" t="s">
         <v>480</v>
       </c>
       <c r="E188" s="6"/>
-      <c r="F188" s="30"/>
+      <c r="F188" s="27"/>
       <c r="G188" s="12" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="21">
+      <c r="A189" s="18">
         <v>187</v>
       </c>
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="37" t="s">
         <v>275</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D189" s="59"/>
+      <c r="D189" s="64"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="30"/>
+      <c r="F189" s="27"/>
       <c r="G189" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="21">
+      <c r="A190" s="18">
         <v>188</v>
       </c>
-      <c r="B190" s="40" t="s">
+      <c r="B190" s="37" t="s">
         <v>268</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="58" t="s">
+      <c r="D190" s="63" t="s">
         <v>481</v>
       </c>
       <c r="E190" s="6"/>
-      <c r="F190" s="30"/>
+      <c r="F190" s="27"/>
       <c r="G190" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="21">
+      <c r="A191" s="18">
         <v>189</v>
       </c>
-      <c r="B191" s="40" t="s">
+      <c r="B191" s="37" t="s">
         <v>281</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="59"/>
+      <c r="D191" s="64"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="30"/>
+      <c r="F191" s="27"/>
       <c r="G191" s="12" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="21">
+      <c r="A192" s="18">
         <v>190</v>
       </c>
-      <c r="B192" s="40" t="s">
+      <c r="B192" s="37" t="s">
         <v>282</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="58" t="s">
+      <c r="D192" s="63" t="s">
         <v>485</v>
       </c>
       <c r="E192" s="6"/>
-      <c r="F192" s="30"/>
+      <c r="F192" s="27"/>
       <c r="G192" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="21">
+      <c r="A193" s="18">
         <v>191</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="36" t="s">
         <v>283</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="59"/>
+      <c r="D193" s="64"/>
       <c r="E193" s="14"/>
-      <c r="F193" s="30"/>
+      <c r="F193" s="27"/>
       <c r="G193" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="21">
+      <c r="A194" s="18">
         <v>192</v>
       </c>
-      <c r="B194" s="40" t="s">
+      <c r="B194" s="37" t="s">
         <v>284</v>
       </c>
       <c r="C194" s="6" t="s">
@@ -6346,16 +6334,16 @@
       <c r="E194" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F194" s="30"/>
+      <c r="F194" s="27"/>
       <c r="G194" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="21">
+      <c r="A195" s="18">
         <v>193</v>
       </c>
-      <c r="B195" s="40" t="s">
+      <c r="B195" s="37" t="s">
         <v>286</v>
       </c>
       <c r="C195" s="9" t="s">
@@ -6367,88 +6355,88 @@
       <c r="E195" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F195" s="30"/>
+      <c r="F195" s="27"/>
       <c r="G195" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="21">
+      <c r="A196" s="18">
         <v>194</v>
       </c>
-      <c r="B196" s="40" t="s">
+      <c r="B196" s="37" t="s">
         <v>288</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="58" t="s">
+      <c r="D196" s="55" t="s">
         <v>487</v>
       </c>
       <c r="E196" s="9"/>
-      <c r="F196" s="30"/>
+      <c r="F196" s="27"/>
       <c r="G196" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="21">
+      <c r="A197" s="18">
         <v>195</v>
       </c>
-      <c r="B197" s="40" t="s">
+      <c r="B197" s="37" t="s">
         <v>299</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="59"/>
+      <c r="D197" s="57"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="30"/>
+      <c r="F197" s="27"/>
       <c r="G197" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="21">
+      <c r="A198" s="18">
         <v>196</v>
       </c>
-      <c r="B198" s="40" t="s">
+      <c r="B198" s="37" t="s">
         <v>290</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="58" t="s">
+      <c r="D198" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="E198" s="35"/>
-      <c r="F198" s="37"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="34"/>
       <c r="G198" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="21">
+      <c r="A199" s="18">
         <v>197</v>
       </c>
-      <c r="B199" s="40" t="s">
+      <c r="B199" s="37" t="s">
         <v>300</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="59"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="37"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="34"/>
       <c r="G199" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="21">
+      <c r="A200" s="18">
         <v>198</v>
       </c>
-      <c r="B200" s="40" t="s">
+      <c r="B200" s="37" t="s">
         <v>530</v>
       </c>
       <c r="C200" s="6" t="s">
@@ -6460,16 +6448,16 @@
       <c r="E200" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F200" s="30"/>
+      <c r="F200" s="27"/>
       <c r="G200" s="12" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="21">
+      <c r="A201" s="18">
         <v>199</v>
       </c>
-      <c r="B201" s="40" t="s">
+      <c r="B201" s="37" t="s">
         <v>293</v>
       </c>
       <c r="C201" s="9" t="s">
@@ -6481,16 +6469,16 @@
       <c r="E201" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F201" s="30"/>
+      <c r="F201" s="27"/>
       <c r="G201" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="21">
+      <c r="A202" s="18">
         <v>200</v>
       </c>
-      <c r="B202" s="40" t="s">
+      <c r="B202" s="37" t="s">
         <v>295</v>
       </c>
       <c r="C202" s="9" t="s">
@@ -6502,124 +6490,124 @@
       <c r="E202" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F202" s="30"/>
+      <c r="F202" s="27"/>
       <c r="G202" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="21">
+      <c r="A203" s="18">
         <v>201</v>
       </c>
-      <c r="B203" s="40" t="s">
+      <c r="B203" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="58" t="s">
+      <c r="D203" s="55" t="s">
         <v>492</v>
       </c>
       <c r="E203" s="9"/>
-      <c r="F203" s="30"/>
+      <c r="F203" s="27"/>
       <c r="G203" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="21">
+      <c r="A204" s="18">
         <v>202</v>
       </c>
-      <c r="B204" s="40" t="s">
+      <c r="B204" s="37" t="s">
         <v>304</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D204" s="59"/>
+      <c r="D204" s="57"/>
       <c r="E204" s="9"/>
-      <c r="F204" s="30"/>
+      <c r="F204" s="27"/>
       <c r="G204" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="21">
+      <c r="A205" s="18">
         <v>203</v>
       </c>
-      <c r="B205" s="40" t="s">
+      <c r="B205" s="37" t="s">
         <v>305</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="58" t="s">
+      <c r="D205" s="55" t="s">
         <v>496</v>
       </c>
       <c r="E205" s="9"/>
-      <c r="F205" s="30"/>
+      <c r="F205" s="27"/>
       <c r="G205" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="21">
+      <c r="A206" s="18">
         <v>204</v>
       </c>
-      <c r="B206" s="40" t="s">
+      <c r="B206" s="37" t="s">
         <v>308</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="59"/>
+      <c r="D206" s="57"/>
       <c r="E206" s="9"/>
-      <c r="F206" s="30"/>
+      <c r="F206" s="27"/>
       <c r="G206" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="21">
+      <c r="A207" s="18">
         <v>205</v>
       </c>
-      <c r="B207" s="40" t="s">
+      <c r="B207" s="37" t="s">
         <v>309</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="58" t="s">
+      <c r="D207" s="55" t="s">
         <v>497</v>
       </c>
       <c r="E207" s="9"/>
-      <c r="F207" s="37"/>
+      <c r="F207" s="34"/>
       <c r="G207" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="21">
+      <c r="A208" s="18">
         <v>206</v>
       </c>
-      <c r="B208" s="40" t="s">
+      <c r="B208" s="37" t="s">
         <v>311</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="59"/>
+      <c r="D208" s="57"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="37"/>
+      <c r="F208" s="34"/>
       <c r="G208" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="21">
+      <c r="A209" s="18">
         <v>207</v>
       </c>
-      <c r="B209" s="40" t="s">
+      <c r="B209" s="37" t="s">
         <v>313</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -6631,16 +6619,16 @@
       <c r="E209" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F209" s="30"/>
+      <c r="F209" s="27"/>
       <c r="G209" s="12" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="21">
+      <c r="A210" s="18">
         <v>208</v>
       </c>
-      <c r="B210" s="40" t="s">
+      <c r="B210" s="37" t="s">
         <v>315</v>
       </c>
       <c r="C210" s="9" t="s">
@@ -6652,16 +6640,16 @@
       <c r="E210" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F210" s="30"/>
+      <c r="F210" s="27"/>
       <c r="G210" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="21">
+      <c r="A211" s="18">
         <v>209</v>
       </c>
-      <c r="B211" s="40" t="s">
+      <c r="B211" s="37" t="s">
         <v>317</v>
       </c>
       <c r="C211" s="9" t="s">
@@ -6673,16 +6661,16 @@
       <c r="E211" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F211" s="30"/>
+      <c r="F211" s="27"/>
       <c r="G211" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="21">
+      <c r="A212" s="18">
         <v>210</v>
       </c>
-      <c r="B212" s="40" t="s">
+      <c r="B212" s="37" t="s">
         <v>320</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -6694,196 +6682,196 @@
       <c r="E212" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F212" s="30"/>
+      <c r="F212" s="27"/>
       <c r="G212" s="12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="21">
+      <c r="A213" s="18">
         <v>211</v>
       </c>
-      <c r="B213" s="40" t="s">
+      <c r="B213" s="37" t="s">
         <v>322</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="58" t="s">
+      <c r="D213" s="55" t="s">
         <v>498</v>
       </c>
       <c r="E213" s="9"/>
-      <c r="F213" s="30"/>
+      <c r="F213" s="27"/>
       <c r="G213" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="21">
+      <c r="A214" s="18">
         <v>212</v>
       </c>
-      <c r="B214" s="40" t="s">
+      <c r="B214" s="37" t="s">
         <v>323</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="59"/>
+      <c r="D214" s="57"/>
       <c r="E214" s="9"/>
-      <c r="F214" s="30"/>
+      <c r="F214" s="27"/>
       <c r="G214" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="21">
+      <c r="A215" s="18">
         <v>213</v>
       </c>
-      <c r="B215" s="40" t="s">
+      <c r="B215" s="37" t="s">
         <v>326</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="58" t="s">
+      <c r="D215" s="55" t="s">
         <v>500</v>
       </c>
       <c r="E215" s="9"/>
-      <c r="F215" s="30"/>
+      <c r="F215" s="27"/>
       <c r="G215" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="21">
+      <c r="A216" s="18">
         <v>214</v>
       </c>
-      <c r="B216" s="40" t="s">
+      <c r="B216" s="37" t="s">
         <v>328</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="59"/>
+      <c r="D216" s="57"/>
       <c r="E216" s="9"/>
-      <c r="F216" s="30"/>
+      <c r="F216" s="27"/>
       <c r="G216" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="21">
+      <c r="A217" s="18">
         <v>215</v>
       </c>
-      <c r="B217" s="40" t="s">
+      <c r="B217" s="37" t="s">
         <v>330</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="58" t="s">
+      <c r="D217" s="55" t="s">
         <v>501</v>
       </c>
       <c r="E217" s="9"/>
-      <c r="F217" s="30"/>
+      <c r="F217" s="27"/>
       <c r="G217" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="21">
+      <c r="A218" s="18">
         <v>216</v>
       </c>
-      <c r="B218" s="40" t="s">
+      <c r="B218" s="37" t="s">
         <v>336</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D218" s="59"/>
+      <c r="D218" s="57"/>
       <c r="E218" s="9"/>
-      <c r="F218" s="30"/>
+      <c r="F218" s="27"/>
       <c r="G218" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="21">
+      <c r="A219" s="18">
         <v>217</v>
       </c>
-      <c r="B219" s="40" t="s">
+      <c r="B219" s="37" t="s">
         <v>332</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="58" t="s">
+      <c r="D219" s="55" t="s">
         <v>502</v>
       </c>
       <c r="E219" s="9"/>
-      <c r="F219" s="37"/>
+      <c r="F219" s="34"/>
       <c r="G219" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="21">
+      <c r="A220" s="18">
         <v>218</v>
       </c>
-      <c r="B220" s="40" t="s">
+      <c r="B220" s="37" t="s">
         <v>337</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="59"/>
+      <c r="D220" s="57"/>
       <c r="E220" s="9"/>
-      <c r="F220" s="37"/>
+      <c r="F220" s="34"/>
       <c r="G220" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="21">
+      <c r="A221" s="18">
         <v>219</v>
       </c>
-      <c r="B221" s="40" t="s">
+      <c r="B221" s="37" t="s">
         <v>338</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="58" t="s">
+      <c r="D221" s="55" t="s">
         <v>503</v>
       </c>
       <c r="E221" s="9"/>
-      <c r="F221" s="37"/>
+      <c r="F221" s="34"/>
       <c r="G221" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="21">
+      <c r="A222" s="18">
         <v>220</v>
       </c>
-      <c r="B222" s="40" t="s">
+      <c r="B222" s="37" t="s">
         <v>391</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="59"/>
+      <c r="D222" s="57"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="36"/>
+      <c r="F222" s="33"/>
       <c r="G222" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="21">
+      <c r="A223" s="18">
         <v>221</v>
       </c>
-      <c r="B223" s="40" t="s">
+      <c r="B223" s="37" t="s">
         <v>340</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -6895,16 +6883,16 @@
       <c r="E223" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F223" s="30"/>
+      <c r="F223" s="27"/>
       <c r="G223" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="21">
+      <c r="A224" s="18">
         <v>222</v>
       </c>
-      <c r="B224" s="40" t="s">
+      <c r="B224" s="37" t="s">
         <v>342</v>
       </c>
       <c r="C224" s="9" t="s">
@@ -6916,16 +6904,16 @@
       <c r="E224" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F224" s="33"/>
+      <c r="F224" s="30"/>
       <c r="G224" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="21">
+      <c r="A225" s="18">
         <v>223</v>
       </c>
-      <c r="B225" s="40" t="s">
+      <c r="B225" s="37" t="s">
         <v>344</v>
       </c>
       <c r="C225" s="9" t="s">
@@ -6937,16 +6925,16 @@
       <c r="E225" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F225" s="30"/>
+      <c r="F225" s="27"/>
       <c r="G225" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="21">
+      <c r="A226" s="18">
         <v>224</v>
       </c>
-      <c r="B226" s="40" t="s">
+      <c r="B226" s="37" t="s">
         <v>346</v>
       </c>
       <c r="C226" s="6" t="s">
@@ -6958,196 +6946,196 @@
       <c r="E226" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F226" s="30"/>
+      <c r="F226" s="27"/>
       <c r="G226" s="12" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="21">
+      <c r="A227" s="18">
         <v>225</v>
       </c>
-      <c r="B227" s="40" t="s">
+      <c r="B227" s="37" t="s">
         <v>348</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="58" t="s">
+      <c r="D227" s="55" t="s">
         <v>506</v>
       </c>
       <c r="E227" s="9"/>
-      <c r="F227" s="33"/>
+      <c r="F227" s="30"/>
       <c r="G227" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="21">
+      <c r="A228" s="18">
         <v>226</v>
       </c>
-      <c r="B228" s="40" t="s">
+      <c r="B228" s="37" t="s">
         <v>392</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="59"/>
+      <c r="D228" s="57"/>
       <c r="E228" s="9"/>
-      <c r="F228" s="33"/>
+      <c r="F228" s="30"/>
       <c r="G228" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="21">
+      <c r="A229" s="18">
         <v>227</v>
       </c>
-      <c r="B229" s="40" t="s">
+      <c r="B229" s="37" t="s">
         <v>351</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="58" t="s">
+      <c r="D229" s="55" t="s">
         <v>508</v>
       </c>
       <c r="E229" s="9"/>
-      <c r="F229" s="33"/>
+      <c r="F229" s="30"/>
       <c r="G229" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="21">
+      <c r="A230" s="18">
         <v>228</v>
       </c>
-      <c r="B230" s="40" t="s">
+      <c r="B230" s="37" t="s">
         <v>393</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="59"/>
+      <c r="D230" s="57"/>
       <c r="E230" s="9"/>
-      <c r="F230" s="33"/>
+      <c r="F230" s="30"/>
       <c r="G230" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="21">
+      <c r="A231" s="18">
         <v>229</v>
       </c>
-      <c r="B231" s="40" t="s">
+      <c r="B231" s="37" t="s">
         <v>354</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="58" t="s">
+      <c r="D231" s="55" t="s">
         <v>509</v>
       </c>
       <c r="E231" s="9"/>
-      <c r="F231" s="33"/>
+      <c r="F231" s="30"/>
       <c r="G231" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="21">
+      <c r="A232" s="18">
         <v>230</v>
       </c>
-      <c r="B232" s="40" t="s">
+      <c r="B232" s="37" t="s">
         <v>359</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="59"/>
+      <c r="D232" s="57"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="33"/>
+      <c r="F232" s="30"/>
       <c r="G232" s="10" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="21">
+      <c r="A233" s="18">
         <v>231</v>
       </c>
-      <c r="B233" s="40" t="s">
+      <c r="B233" s="37" t="s">
         <v>357</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="58" t="s">
+      <c r="D233" s="55" t="s">
         <v>510</v>
       </c>
       <c r="E233" s="9"/>
-      <c r="F233" s="33"/>
+      <c r="F233" s="30"/>
       <c r="G233" s="10" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="21">
+      <c r="A234" s="18">
         <v>232</v>
       </c>
-      <c r="B234" s="40" t="s">
+      <c r="B234" s="37" t="s">
         <v>360</v>
       </c>
       <c r="C234" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="59"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="9"/>
-      <c r="F234" s="33"/>
+      <c r="F234" s="30"/>
       <c r="G234" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="21">
+      <c r="A235" s="18">
         <v>233</v>
       </c>
-      <c r="B235" s="40" t="s">
+      <c r="B235" s="37" t="s">
         <v>362</v>
       </c>
       <c r="C235" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="58" t="s">
+      <c r="D235" s="55" t="s">
         <v>511</v>
       </c>
       <c r="E235" s="9"/>
-      <c r="F235" s="33"/>
+      <c r="F235" s="30"/>
       <c r="G235" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="21">
+      <c r="A236" s="18">
         <v>234</v>
       </c>
-      <c r="B236" s="40" t="s">
+      <c r="B236" s="37" t="s">
         <v>364</v>
       </c>
       <c r="C236" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="59"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="33"/>
+      <c r="F236" s="30"/>
       <c r="G236" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="21">
+      <c r="A237" s="18">
         <v>235</v>
       </c>
-      <c r="B237" s="40" t="s">
+      <c r="B237" s="37" t="s">
         <v>552</v>
       </c>
       <c r="C237" s="6" t="s">
@@ -7159,16 +7147,16 @@
       <c r="E237" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F237" s="30"/>
+      <c r="F237" s="27"/>
       <c r="G237" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="21">
+      <c r="A238" s="18">
         <v>236</v>
       </c>
-      <c r="B238" s="40" t="s">
+      <c r="B238" s="37" t="s">
         <v>367</v>
       </c>
       <c r="C238" s="9" t="s">
@@ -7180,16 +7168,16 @@
       <c r="E238" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F238" s="33"/>
+      <c r="F238" s="30"/>
       <c r="G238" s="10" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="21">
+      <c r="A239" s="18">
         <v>237</v>
       </c>
-      <c r="B239" s="40" t="s">
+      <c r="B239" s="37" t="s">
         <v>369</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -7201,16 +7189,16 @@
       <c r="E239" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F239" s="33"/>
+      <c r="F239" s="30"/>
       <c r="G239" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="21">
+      <c r="A240" s="18">
         <v>238</v>
       </c>
-      <c r="B240" s="40" t="s">
+      <c r="B240" s="37" t="s">
         <v>371</v>
       </c>
       <c r="C240" s="9" t="s">
@@ -7222,16 +7210,16 @@
       <c r="E240" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F240" s="33"/>
+      <c r="F240" s="30"/>
       <c r="G240" s="10" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="21">
+      <c r="A241" s="18">
         <v>239</v>
       </c>
-      <c r="B241" s="40" t="s">
+      <c r="B241" s="37" t="s">
         <v>373</v>
       </c>
       <c r="C241" s="9" t="s">
@@ -7243,16 +7231,16 @@
       <c r="E241" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F241" s="33"/>
+      <c r="F241" s="30"/>
       <c r="G241" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="242" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="21">
+      <c r="A242" s="18">
         <v>240</v>
       </c>
-      <c r="B242" s="40" t="s">
+      <c r="B242" s="37" t="s">
         <v>375</v>
       </c>
       <c r="C242" s="6" t="s">
@@ -7264,124 +7252,124 @@
       <c r="E242" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F242" s="30"/>
+      <c r="F242" s="27"/>
       <c r="G242" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="21">
+      <c r="A243" s="18">
         <v>241</v>
       </c>
-      <c r="B243" s="40" t="s">
+      <c r="B243" s="37" t="s">
         <v>377</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="58" t="s">
+      <c r="D243" s="55" t="s">
         <v>518</v>
       </c>
       <c r="E243" s="9"/>
-      <c r="F243" s="33"/>
+      <c r="F243" s="30"/>
       <c r="G243" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="21">
+      <c r="A244" s="18">
         <v>242</v>
       </c>
-      <c r="B244" s="40" t="s">
+      <c r="B244" s="37" t="s">
         <v>378</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="59"/>
+      <c r="D244" s="57"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="33"/>
+      <c r="F244" s="30"/>
       <c r="G244" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="21">
+      <c r="A245" s="18">
         <v>243</v>
       </c>
-      <c r="B245" s="40" t="s">
+      <c r="B245" s="37" t="s">
         <v>382</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="58" t="s">
+      <c r="D245" s="55" t="s">
         <v>519</v>
       </c>
       <c r="E245" s="9"/>
-      <c r="F245" s="33"/>
+      <c r="F245" s="30"/>
       <c r="G245" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="21">
+      <c r="A246" s="18">
         <v>244</v>
       </c>
-      <c r="B246" s="40" t="s">
+      <c r="B246" s="37" t="s">
         <v>383</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="59"/>
+      <c r="D246" s="57"/>
       <c r="E246" s="9"/>
-      <c r="F246" s="33"/>
+      <c r="F246" s="30"/>
       <c r="G246" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="21">
+      <c r="A247" s="18">
         <v>245</v>
       </c>
-      <c r="B247" s="40" t="s">
+      <c r="B247" s="37" t="s">
         <v>385</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D247" s="58" t="s">
+      <c r="D247" s="55" t="s">
         <v>520</v>
       </c>
       <c r="E247" s="9"/>
-      <c r="F247" s="33"/>
+      <c r="F247" s="30"/>
       <c r="G247" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="21">
+      <c r="A248" s="18">
         <v>246</v>
       </c>
-      <c r="B248" s="40" t="s">
+      <c r="B248" s="37" t="s">
         <v>387</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="59"/>
+      <c r="D248" s="57"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="33"/>
+      <c r="F248" s="30"/>
       <c r="G248" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="21">
+      <c r="A249" s="18">
         <v>247</v>
       </c>
-      <c r="B249" s="40" t="s">
+      <c r="B249" s="37" t="s">
         <v>389</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -7393,13 +7381,13 @@
       <c r="E249" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F249" s="30"/>
+      <c r="F249" s="27"/>
       <c r="G249" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="21">
+      <c r="A250" s="18">
         <v>248</v>
       </c>
       <c r="B250" s="16"/>
@@ -7409,7 +7397,7 @@
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="21">
+      <c r="A251" s="18">
         <v>249</v>
       </c>
       <c r="B251" s="16"/>
@@ -7419,7 +7407,7 @@
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="21">
+      <c r="A252" s="18">
         <v>250</v>
       </c>
       <c r="B252" s="16"/>
@@ -7429,7 +7417,7 @@
       <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="21">
+      <c r="A253" s="18">
         <v>251</v>
       </c>
       <c r="B253" s="16"/>
@@ -7439,7 +7427,7 @@
       <c r="H253" s="4"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="21">
+      <c r="A254" s="18">
         <v>252</v>
       </c>
       <c r="B254" s="16"/>
@@ -7449,7 +7437,7 @@
       <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="21">
+      <c r="A255" s="18">
         <v>253</v>
       </c>
       <c r="B255" s="16"/>
@@ -7459,7 +7447,7 @@
       <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="21">
+      <c r="A256" s="18">
         <v>254</v>
       </c>
       <c r="B256" s="16"/>
@@ -7469,7 +7457,7 @@
       <c r="H256" s="4"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="21">
+      <c r="A257" s="18">
         <v>255</v>
       </c>
       <c r="B257" s="16"/>
@@ -7479,42 +7467,89 @@
       <c r="H257" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="44"/>
-      <c r="B259" s="45"/>
+      <c r="A259" s="40"/>
+      <c r="B259" s="41"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="44"/>
-      <c r="B260" s="46"/>
+      <c r="A260" s="40"/>
+      <c r="B260" s="42"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="44"/>
-      <c r="B261" s="46"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="42"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="44"/>
-      <c r="B262" s="46"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="42"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="44"/>
-      <c r="B263" s="46"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="42"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="44"/>
-      <c r="B264" s="46"/>
+      <c r="A264" s="40"/>
+      <c r="B264" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="D235:D236"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="E13:E17"/>
@@ -7523,64 +7558,17 @@
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7593,7 +7581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7609,39 +7597,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -7653,14 +7641,14 @@
       <c r="D3" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="55" t="s">
         <v>610</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -7672,12 +7660,12 @@
       <c r="D4" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -7689,12 +7677,12 @@
       <c r="D5" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -7706,14 +7694,14 @@
       <c r="D6" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -7725,12 +7713,12 @@
       <c r="D7" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -7742,12 +7730,12 @@
       <c r="D8" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -7759,14 +7747,14 @@
       <c r="D9" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="55" t="s">
         <v>612</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -7778,11 +7766,11 @@
       <c r="D10" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="G10" s="53"/>
+      <c r="E10" s="56"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -7794,12 +7782,12 @@
       <c r="D11" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -7811,14 +7799,14 @@
       <c r="D12" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="55" t="s">
         <v>613</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -7830,12 +7818,12 @@
       <c r="D13" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -7847,12 +7835,12 @@
       <c r="D14" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -7864,14 +7852,14 @@
       <c r="D15" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>614</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -7883,12 +7871,12 @@
       <c r="D16" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -7900,12 +7888,12 @@
       <c r="D17" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -7917,14 +7905,14 @@
       <c r="D18" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="55" t="s">
         <v>615</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -7936,12 +7924,12 @@
       <c r="D19" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -7953,12 +7941,12 @@
       <c r="D20" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -7970,14 +7958,14 @@
       <c r="D21" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="55" t="s">
         <v>616</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -7989,12 +7977,12 @@
       <c r="D22" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -8006,12 +7994,12 @@
       <c r="D23" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -8023,14 +8011,14 @@
       <c r="D24" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="55" t="s">
         <v>617</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="53"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -8042,15 +8030,15 @@
       <c r="D25" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="6" t="s">
         <v>572</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -8059,14 +8047,14 @@
       <c r="D26" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="54" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="G26" s="55"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -8078,14 +8066,14 @@
       <c r="D27" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="55" t="s">
         <v>618</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -8097,12 +8085,12 @@
       <c r="D28" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -8114,12 +8102,12 @@
       <c r="D29" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -8131,14 +8119,14 @@
       <c r="D30" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="55" t="s">
         <v>619</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -8150,12 +8138,12 @@
       <c r="D31" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -8167,12 +8155,12 @@
       <c r="D32" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -8184,14 +8172,14 @@
       <c r="D33" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="55" t="s">
         <v>620</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -8203,12 +8191,12 @@
       <c r="D34" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -8220,12 +8208,12 @@
       <c r="D35" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -8237,14 +8225,14 @@
       <c r="D36" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -8256,23 +8244,23 @@
       <c r="D37" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="59"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="55"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -8284,14 +8272,14 @@
       <c r="D39" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -8303,12 +8291,12 @@
       <c r="D40" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -8320,12 +8308,12 @@
       <c r="D41" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -8337,14 +8325,14 @@
       <c r="D42" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -8356,12 +8344,12 @@
       <c r="D43" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -8373,12 +8361,12 @@
       <c r="D44" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -8390,14 +8378,14 @@
       <c r="D45" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -8409,23 +8397,23 @@
       <c r="D46" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>45</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="59"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="55"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>46</v>
       </c>
       <c r="B48" s="9"/>
@@ -8434,11 +8422,11 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>47</v>
       </c>
       <c r="B49" s="9"/>
@@ -8447,11 +8435,11 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="18">
         <v>48</v>
       </c>
       <c r="B50" s="9"/>
@@ -8460,11 +8448,11 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="18">
         <v>49</v>
       </c>
       <c r="B51" s="9"/>
@@ -8473,11 +8461,11 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="A52" s="18">
         <v>50</v>
       </c>
       <c r="B52" s="9"/>
@@ -8486,11 +8474,11 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="18">
         <v>51</v>
       </c>
       <c r="B53" s="9"/>
@@ -8499,11 +8487,11 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
+      <c r="A54" s="18">
         <v>52</v>
       </c>
       <c r="B54" s="9"/>
@@ -8512,11 +8500,11 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
+      <c r="A55" s="18">
         <v>53</v>
       </c>
       <c r="B55" s="9"/>
@@ -8525,11 +8513,11 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
+      <c r="A56" s="18">
         <v>54</v>
       </c>
       <c r="B56" s="9"/>
@@ -8538,11 +8526,11 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="18">
         <v>55</v>
       </c>
       <c r="B57" s="9"/>
@@ -8551,11 +8539,11 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="A58" s="18">
         <v>56</v>
       </c>
       <c r="B58" s="9"/>
@@ -8564,11 +8552,11 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="A59" s="18">
         <v>57</v>
       </c>
       <c r="B59" s="9"/>
@@ -8577,11 +8565,11 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="18">
         <v>58</v>
       </c>
       <c r="B60" s="9"/>
@@ -8590,11 +8578,11 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="21">
+      <c r="A61" s="18">
         <v>59</v>
       </c>
       <c r="B61" s="9"/>
@@ -8603,11 +8591,11 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
+      <c r="A62" s="18">
         <v>60</v>
       </c>
       <c r="B62" s="9"/>
@@ -8616,11 +8604,11 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+      <c r="A63" s="18">
         <v>61</v>
       </c>
       <c r="B63" s="9"/>
@@ -8629,11 +8617,11 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
+      <c r="A64" s="18">
         <v>62</v>
       </c>
       <c r="B64" s="9"/>
@@ -8642,11 +8630,11 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+      <c r="A65" s="18">
         <v>63</v>
       </c>
       <c r="B65" s="9"/>
@@ -8655,11 +8643,11 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="18">
         <v>64</v>
       </c>
       <c r="B66" s="9"/>
@@ -8668,11 +8656,11 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+      <c r="A67" s="18">
         <v>65</v>
       </c>
       <c r="B67" s="9"/>
@@ -8681,2107 +8669,2101 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
+      <c r="A68" s="18">
         <v>66</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
+      <c r="A69" s="18">
         <v>67</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="A70" s="18">
         <v>68</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
+      <c r="A71" s="18">
         <v>69</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
+      <c r="A72" s="18">
         <v>70</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="A73" s="18">
         <v>71</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
+      <c r="A74" s="18">
         <v>72</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
+      <c r="A75" s="18">
         <v>73</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
+      <c r="A76" s="18">
         <v>74</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <v>75</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
+      <c r="A78" s="18">
         <v>76</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
+      <c r="A79" s="18">
         <v>77</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="21">
+      <c r="A80" s="18">
         <v>78</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
+      <c r="A81" s="18">
         <v>79</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="21">
+      <c r="A82" s="18">
         <v>80</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
+      <c r="A83" s="18">
         <v>81</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
+      <c r="A84" s="18">
         <v>82</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="21">
+      <c r="A85" s="18">
         <v>83</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
+      <c r="A86" s="18">
         <v>84</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
+      <c r="A87" s="18">
         <v>85</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
+      <c r="A88" s="18">
         <v>86</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
+      <c r="A89" s="18">
         <v>87</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
+      <c r="A90" s="18">
         <v>88</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
+      <c r="A91" s="18">
         <v>89</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
+      <c r="A92" s="18">
         <v>90</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
+      <c r="A93" s="18">
         <v>91</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="21">
+      <c r="A94" s="18">
         <v>92</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
+      <c r="A95" s="18">
         <v>93</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="21">
+      <c r="A96" s="18">
         <v>94</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="21">
+      <c r="A97" s="18">
         <v>95</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="21">
+      <c r="A98" s="18">
         <v>96</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
+      <c r="A99" s="18">
         <v>97</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
+      <c r="A100" s="18">
         <v>98</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
+      <c r="A101" s="18">
         <v>99</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
+      <c r="A102" s="18">
         <v>100</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="21">
+      <c r="A103" s="18">
         <v>101</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="21">
+      <c r="A104" s="18">
         <v>102</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
+      <c r="A105" s="18">
         <v>103</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
+      <c r="A106" s="18">
         <v>104</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="21">
+      <c r="A107" s="18">
         <v>105</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
+      <c r="A108" s="18">
         <v>106</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="21">
+      <c r="A109" s="18">
         <v>107</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="21">
+      <c r="A110" s="18">
         <v>108</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="21">
+      <c r="A111" s="18">
         <v>109</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="21">
+      <c r="A112" s="18">
         <v>110</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="21">
+      <c r="A113" s="18">
         <v>111</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="21">
+      <c r="A114" s="18">
         <v>112</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="21">
+      <c r="A115" s="18">
         <v>113</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="21">
+      <c r="A116" s="18">
         <v>114</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
+      <c r="A117" s="18">
         <v>115</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
+      <c r="A118" s="18">
         <v>116</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
+      <c r="A119" s="18">
         <v>117</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
+      <c r="A120" s="18">
         <v>118</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="21">
+      <c r="A121" s="18">
         <v>119</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="21">
+      <c r="A122" s="18">
         <v>120</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="49"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="21">
+      <c r="A123" s="18">
         <v>121</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="49"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="21">
+      <c r="A124" s="18">
         <v>122</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="21">
+      <c r="A125" s="18">
         <v>123</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
+      <c r="A126" s="18">
         <v>124</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="21">
+      <c r="A127" s="18">
         <v>125</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="21">
+      <c r="A128" s="18">
         <v>126</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="21">
+      <c r="A129" s="18">
         <v>127</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="21">
+      <c r="A130" s="18">
         <v>128</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="53"/>
-      <c r="G130" s="53"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="21">
+      <c r="A131" s="18">
         <v>129</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="21">
+      <c r="A132" s="18">
         <v>130</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="21">
+      <c r="A133" s="18">
         <v>131</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="21">
+      <c r="A134" s="18">
         <v>132</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
+      <c r="A135" s="18">
         <v>133</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="21">
+      <c r="A136" s="18">
         <v>134</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="21">
+      <c r="A137" s="18">
         <v>135</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="21">
+      <c r="A138" s="18">
         <v>136</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="21">
+      <c r="A139" s="18">
         <v>137</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="53"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="21">
+      <c r="A140" s="18">
         <v>138</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="53"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="21">
+      <c r="A141" s="18">
         <v>139</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="53"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="21">
+      <c r="A142" s="18">
         <v>140</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="53"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="21">
+      <c r="A143" s="18">
         <v>141</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="53"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="21">
+      <c r="A144" s="18">
         <v>142</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="21">
+      <c r="A145" s="18">
         <v>143</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="53"/>
-      <c r="G145" s="53"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="21">
+      <c r="A146" s="18">
         <v>144</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="21">
+      <c r="A147" s="18">
         <v>145</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="21">
+      <c r="A148" s="18">
         <v>146</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="21">
+      <c r="A149" s="18">
         <v>147</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="53"/>
-      <c r="G149" s="53"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="21">
+      <c r="A150" s="18">
         <v>148</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="53"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="21">
+      <c r="A151" s="18">
         <v>149</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="53"/>
-      <c r="G151" s="53"/>
+      <c r="F151" s="49"/>
+      <c r="G151" s="49"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="21">
+      <c r="A152" s="18">
         <v>150</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="53"/>
-      <c r="G152" s="53"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="21">
+      <c r="A153" s="18">
         <v>151</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
+      <c r="F153" s="49"/>
+      <c r="G153" s="49"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="21">
+      <c r="A154" s="18">
         <v>152</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="53"/>
-      <c r="G154" s="53"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="49"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="21">
+      <c r="A155" s="18">
         <v>153</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="53"/>
-      <c r="G155" s="53"/>
+      <c r="F155" s="49"/>
+      <c r="G155" s="49"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="21">
+      <c r="A156" s="18">
         <v>154</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="53"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="49"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="21">
+      <c r="A157" s="18">
         <v>155</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="49"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="21">
+      <c r="A158" s="18">
         <v>156</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="21">
+      <c r="A159" s="18">
         <v>157</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="21">
+      <c r="A160" s="18">
         <v>158</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="53"/>
-      <c r="G160" s="53"/>
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="21">
+      <c r="A161" s="18">
         <v>159</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="49"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="21">
+      <c r="A162" s="18">
         <v>160</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="21">
+      <c r="A163" s="18">
         <v>161</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="53"/>
+      <c r="F163" s="49"/>
+      <c r="G163" s="49"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="21">
+      <c r="A164" s="18">
         <v>162</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="49"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="21">
+      <c r="A165" s="18">
         <v>163</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="49"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="21">
+      <c r="A166" s="18">
         <v>164</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
+      <c r="F166" s="49"/>
+      <c r="G166" s="49"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="21">
+      <c r="A167" s="18">
         <v>165</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
+      <c r="F167" s="49"/>
+      <c r="G167" s="49"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="21">
+      <c r="A168" s="18">
         <v>166</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="21">
+      <c r="A169" s="18">
         <v>167</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="49"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="21">
+      <c r="A170" s="18">
         <v>168</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="21">
+      <c r="A171" s="18">
         <v>169</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="21">
+      <c r="A172" s="18">
         <v>170</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="21">
+      <c r="A173" s="18">
         <v>171</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="53"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="21">
+      <c r="A174" s="18">
         <v>172</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="53"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="21">
+      <c r="A175" s="18">
         <v>173</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="53"/>
-      <c r="G175" s="53"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="49"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="21">
+      <c r="A176" s="18">
         <v>174</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="53"/>
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="21">
+      <c r="A177" s="18">
         <v>175</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="53"/>
+      <c r="F177" s="49"/>
+      <c r="G177" s="49"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="21">
+      <c r="A178" s="18">
         <v>176</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="53"/>
-      <c r="G178" s="53"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="21">
+      <c r="A179" s="18">
         <v>177</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="53"/>
-      <c r="G179" s="53"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="21">
+      <c r="A180" s="18">
         <v>178</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="53"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="21">
+      <c r="A181" s="18">
         <v>179</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
+      <c r="F181" s="49"/>
+      <c r="G181" s="49"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="21">
+      <c r="A182" s="18">
         <v>180</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="53"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="49"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="21">
+      <c r="A183" s="18">
         <v>181</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
+      <c r="F183" s="49"/>
+      <c r="G183" s="49"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="21">
+      <c r="A184" s="18">
         <v>182</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
+      <c r="F184" s="49"/>
+      <c r="G184" s="49"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="21">
+      <c r="A185" s="18">
         <v>183</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="53"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="21">
+      <c r="A186" s="18">
         <v>184</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="53"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="21">
+      <c r="A187" s="18">
         <v>185</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="53"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="21">
+      <c r="A188" s="18">
         <v>186</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="53"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="21">
+      <c r="A189" s="18">
         <v>187</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="21">
+      <c r="A190" s="18">
         <v>188</v>
       </c>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="53"/>
-      <c r="G190" s="53"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="49"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="21">
+      <c r="A191" s="18">
         <v>189</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
-      <c r="F191" s="53"/>
-      <c r="G191" s="53"/>
+      <c r="F191" s="49"/>
+      <c r="G191" s="49"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="21">
+      <c r="A192" s="18">
         <v>190</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="53"/>
+      <c r="F192" s="49"/>
+      <c r="G192" s="49"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="21">
+      <c r="A193" s="18">
         <v>191</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="53"/>
+      <c r="F193" s="49"/>
+      <c r="G193" s="49"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="21">
+      <c r="A194" s="18">
         <v>192</v>
       </c>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="53"/>
-      <c r="G194" s="53"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="49"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="21">
+      <c r="A195" s="18">
         <v>193</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="53"/>
-      <c r="G195" s="53"/>
+      <c r="F195" s="49"/>
+      <c r="G195" s="49"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="21">
+      <c r="A196" s="18">
         <v>194</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="53"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="49"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="21">
+      <c r="A197" s="18">
         <v>195</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="53"/>
-      <c r="G197" s="53"/>
+      <c r="F197" s="49"/>
+      <c r="G197" s="49"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="21">
+      <c r="A198" s="18">
         <v>196</v>
       </c>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="53"/>
+      <c r="F198" s="49"/>
+      <c r="G198" s="49"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="21">
+      <c r="A199" s="18">
         <v>197</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="53"/>
-      <c r="G199" s="53"/>
+      <c r="F199" s="49"/>
+      <c r="G199" s="49"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="21">
+      <c r="A200" s="18">
         <v>198</v>
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="53"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="49"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="21">
+      <c r="A201" s="18">
         <v>199</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="53"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="21">
+      <c r="A202" s="18">
         <v>200</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="53"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="49"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="21">
+      <c r="A203" s="18">
         <v>201</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
-      <c r="F203" s="53"/>
-      <c r="G203" s="53"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="49"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="21">
+      <c r="A204" s="18">
         <v>202</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="53"/>
+      <c r="F204" s="49"/>
+      <c r="G204" s="49"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="21">
+      <c r="A205" s="18">
         <v>203</v>
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="53"/>
-      <c r="G205" s="53"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="49"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="21">
+      <c r="A206" s="18">
         <v>204</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
-      <c r="F206" s="53"/>
-      <c r="G206" s="53"/>
+      <c r="F206" s="49"/>
+      <c r="G206" s="49"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="21">
+      <c r="A207" s="18">
         <v>205</v>
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
-      <c r="F207" s="53"/>
-      <c r="G207" s="53"/>
+      <c r="F207" s="49"/>
+      <c r="G207" s="49"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="21">
+      <c r="A208" s="18">
         <v>206</v>
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
+      <c r="F208" s="49"/>
+      <c r="G208" s="49"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="21">
+      <c r="A209" s="18">
         <v>207</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="53"/>
-      <c r="G209" s="53"/>
+      <c r="F209" s="49"/>
+      <c r="G209" s="49"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="21">
+      <c r="A210" s="18">
         <v>208</v>
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
-      <c r="F210" s="53"/>
-      <c r="G210" s="53"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="49"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="21">
+      <c r="A211" s="18">
         <v>209</v>
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
-      <c r="F211" s="53"/>
-      <c r="G211" s="53"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="49"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="21">
+      <c r="A212" s="18">
         <v>210</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="53"/>
-      <c r="G212" s="53"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="49"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="21">
+      <c r="A213" s="18">
         <v>211</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="53"/>
+      <c r="F213" s="49"/>
+      <c r="G213" s="49"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="21">
+      <c r="A214" s="18">
         <v>212</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
-      <c r="F214" s="53"/>
-      <c r="G214" s="53"/>
+      <c r="F214" s="49"/>
+      <c r="G214" s="49"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="21">
+      <c r="A215" s="18">
         <v>213</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
-      <c r="F215" s="53"/>
-      <c r="G215" s="53"/>
+      <c r="F215" s="49"/>
+      <c r="G215" s="49"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="21">
+      <c r="A216" s="18">
         <v>214</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
-      <c r="F216" s="53"/>
-      <c r="G216" s="53"/>
+      <c r="F216" s="49"/>
+      <c r="G216" s="49"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="21">
+      <c r="A217" s="18">
         <v>215</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="53"/>
-      <c r="G217" s="53"/>
+      <c r="F217" s="49"/>
+      <c r="G217" s="49"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="21">
+      <c r="A218" s="18">
         <v>216</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
-      <c r="F218" s="53"/>
-      <c r="G218" s="53"/>
+      <c r="F218" s="49"/>
+      <c r="G218" s="49"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="21">
+      <c r="A219" s="18">
         <v>217</v>
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
-      <c r="F219" s="53"/>
-      <c r="G219" s="53"/>
+      <c r="F219" s="49"/>
+      <c r="G219" s="49"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="21">
+      <c r="A220" s="18">
         <v>218</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
-      <c r="F220" s="53"/>
-      <c r="G220" s="53"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="21">
+      <c r="A221" s="18">
         <v>219</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
-      <c r="F221" s="53"/>
-      <c r="G221" s="53"/>
+      <c r="F221" s="49"/>
+      <c r="G221" s="49"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="21">
+      <c r="A222" s="18">
         <v>220</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="53"/>
-      <c r="G222" s="53"/>
+      <c r="F222" s="49"/>
+      <c r="G222" s="49"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="21">
+      <c r="A223" s="18">
         <v>221</v>
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
-      <c r="F223" s="53"/>
-      <c r="G223" s="53"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="21">
+      <c r="A224" s="18">
         <v>222</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
-      <c r="F224" s="53"/>
-      <c r="G224" s="53"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="49"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="21">
+      <c r="A225" s="18">
         <v>223</v>
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
-      <c r="F225" s="53"/>
-      <c r="G225" s="53"/>
+      <c r="F225" s="49"/>
+      <c r="G225" s="49"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="21">
+      <c r="A226" s="18">
         <v>224</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
-      <c r="F226" s="53"/>
-      <c r="G226" s="53"/>
+      <c r="F226" s="49"/>
+      <c r="G226" s="49"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="21">
+      <c r="A227" s="18">
         <v>225</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
-      <c r="F227" s="53"/>
-      <c r="G227" s="53"/>
+      <c r="F227" s="49"/>
+      <c r="G227" s="49"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="21">
+      <c r="A228" s="18">
         <v>226</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
-      <c r="F228" s="53"/>
-      <c r="G228" s="53"/>
+      <c r="F228" s="49"/>
+      <c r="G228" s="49"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="21">
+      <c r="A229" s="18">
         <v>227</v>
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
-      <c r="F229" s="53"/>
-      <c r="G229" s="53"/>
+      <c r="F229" s="49"/>
+      <c r="G229" s="49"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="21">
+      <c r="A230" s="18">
         <v>228</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
-      <c r="F230" s="53"/>
-      <c r="G230" s="53"/>
+      <c r="F230" s="49"/>
+      <c r="G230" s="49"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="21">
+      <c r="A231" s="18">
         <v>229</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
-      <c r="F231" s="53"/>
-      <c r="G231" s="53"/>
+      <c r="F231" s="49"/>
+      <c r="G231" s="49"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="21">
+      <c r="A232" s="18">
         <v>230</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="53"/>
+      <c r="F232" s="49"/>
+      <c r="G232" s="49"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="21">
+      <c r="A233" s="18">
         <v>231</v>
       </c>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
-      <c r="F233" s="53"/>
-      <c r="G233" s="53"/>
+      <c r="F233" s="49"/>
+      <c r="G233" s="49"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="21">
+      <c r="A234" s="18">
         <v>232</v>
       </c>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
-      <c r="F234" s="53"/>
-      <c r="G234" s="53"/>
+      <c r="F234" s="49"/>
+      <c r="G234" s="49"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="21">
+      <c r="A235" s="18">
         <v>233</v>
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="53"/>
-      <c r="G235" s="53"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="49"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="21">
+      <c r="A236" s="18">
         <v>234</v>
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="53"/>
-      <c r="G236" s="53"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="49"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="21">
+      <c r="A237" s="18">
         <v>235</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
-      <c r="F237" s="53"/>
-      <c r="G237" s="53"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="49"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="21">
+      <c r="A238" s="18">
         <v>236</v>
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="53"/>
+      <c r="F238" s="49"/>
+      <c r="G238" s="49"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="21">
+      <c r="A239" s="18">
         <v>237</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="53"/>
+      <c r="F239" s="49"/>
+      <c r="G239" s="49"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="21">
+      <c r="A240" s="18">
         <v>238</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="53"/>
+      <c r="F240" s="49"/>
+      <c r="G240" s="49"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="21">
+      <c r="A241" s="18">
         <v>239</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="53"/>
-      <c r="G241" s="53"/>
+      <c r="F241" s="49"/>
+      <c r="G241" s="49"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="21">
+      <c r="A242" s="18">
         <v>240</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="53"/>
+      <c r="F242" s="49"/>
+      <c r="G242" s="49"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="21">
+      <c r="A243" s="18">
         <v>241</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
-      <c r="F243" s="53"/>
-      <c r="G243" s="53"/>
+      <c r="F243" s="49"/>
+      <c r="G243" s="49"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="21">
+      <c r="A244" s="18">
         <v>242</v>
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="53"/>
-      <c r="G244" s="53"/>
+      <c r="F244" s="49"/>
+      <c r="G244" s="49"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="21">
+      <c r="A245" s="18">
         <v>243</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
-      <c r="F245" s="53"/>
-      <c r="G245" s="53"/>
+      <c r="F245" s="49"/>
+      <c r="G245" s="49"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="21">
+      <c r="A246" s="18">
         <v>244</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
-      <c r="F246" s="53"/>
-      <c r="G246" s="53"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="21">
+      <c r="A247" s="18">
         <v>245</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="53"/>
-      <c r="G247" s="53"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="49"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="21">
+      <c r="A248" s="18">
         <v>246</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="53"/>
-      <c r="G248" s="53"/>
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="21">
+      <c r="A249" s="18">
         <v>247</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
-      <c r="F249" s="53"/>
-      <c r="G249" s="53"/>
+      <c r="F249" s="49"/>
+      <c r="G249" s="49"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="21">
+      <c r="A250" s="18">
         <v>248</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
-      <c r="F250" s="53"/>
-      <c r="G250" s="53"/>
+      <c r="F250" s="49"/>
+      <c r="G250" s="49"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="21">
+      <c r="A251" s="18">
         <v>249</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
-      <c r="F251" s="53"/>
-      <c r="G251" s="53"/>
+      <c r="F251" s="49"/>
+      <c r="G251" s="49"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="21">
+      <c r="A252" s="18">
         <v>250</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
-      <c r="F252" s="53"/>
-      <c r="G252" s="53"/>
+      <c r="F252" s="49"/>
+      <c r="G252" s="49"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="21">
+      <c r="A253" s="18">
         <v>251</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
-      <c r="F253" s="53"/>
-      <c r="G253" s="53"/>
+      <c r="F253" s="49"/>
+      <c r="G253" s="49"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="21">
+      <c r="A254" s="18">
         <v>252</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
-      <c r="F254" s="53"/>
-      <c r="G254" s="53"/>
+      <c r="F254" s="49"/>
+      <c r="G254" s="49"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="21">
+      <c r="A255" s="18">
         <v>253</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
-      <c r="F255" s="53"/>
-      <c r="G255" s="53"/>
+      <c r="F255" s="49"/>
+      <c r="G255" s="49"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="21">
+      <c r="A256" s="18">
         <v>254</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
-      <c r="F256" s="53"/>
-      <c r="G256" s="53"/>
+      <c r="F256" s="49"/>
+      <c r="G256" s="49"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="21">
+      <c r="A257" s="18">
         <v>255</v>
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
-      <c r="F257" s="53"/>
-      <c r="G257" s="53"/>
+      <c r="F257" s="49"/>
+      <c r="G257" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E45:E47"/>
@@ -10791,6 +10773,12 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tomczak/dok/Crestron CI-KNX.xlsx
+++ b/Tomczak/dok/Crestron CI-KNX.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="21840" windowHeight="6345"/>
+    <workbookView xWindow="-12" yWindow="48" windowWidth="21840" windowHeight="6348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CI-KNX" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="671">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -2019,12 +2019,21 @@
   </si>
   <si>
     <t>[TMP][Pietro][Sypialnia][Base][Cooling]</t>
+  </si>
+  <si>
+    <t>brama lewa quad</t>
+  </si>
+  <si>
+    <t>brama prawa</t>
+  </si>
+  <si>
+    <t>brama srodek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2402,19 +2411,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2423,7 +2429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,6 +2450,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2489,7 +2501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2524,7 +2536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2735,26 +2747,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="41.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2786,7 +2798,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -2796,10 +2808,10 @@
       <c r="C3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>550</v>
       </c>
       <c r="F3" s="53"/>
@@ -2807,7 +2819,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -2817,13 +2829,13 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="27"/>
       <c r="G4" s="12"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -2833,13 +2845,13 @@
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="27"/>
       <c r="G5" s="12"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -2849,13 +2861,13 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="27"/>
       <c r="G6" s="12"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -2871,7 +2883,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -2881,17 +2893,17 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="56" t="s">
         <v>523</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="12"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -2901,13 +2913,13 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="27"/>
       <c r="G9" s="12"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -2917,13 +2929,13 @@
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="27"/>
       <c r="G10" s="12"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -2933,13 +2945,13 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="27"/>
       <c r="G11" s="12"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -2955,7 +2967,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -2965,17 +2977,17 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="56" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="56" t="s">
         <v>522</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="12"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -2985,13 +2997,13 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="27"/>
       <c r="G14" s="12"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -3001,13 +3013,13 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="27"/>
       <c r="G15" s="12"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -3017,13 +3029,13 @@
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="27"/>
       <c r="G16" s="12"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -3039,7 +3051,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -3049,17 +3061,17 @@
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="56" t="s">
         <v>539</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="56" t="s">
         <v>546</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="12"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -3069,13 +3081,13 @@
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="27"/>
       <c r="G19" s="12"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -3085,13 +3097,13 @@
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="27"/>
       <c r="G20" s="12"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -3101,13 +3113,13 @@
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="27"/>
       <c r="G21" s="12"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3123,7 +3135,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -3133,17 +3145,17 @@
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>526</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="12"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -3153,13 +3165,13 @@
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="27"/>
       <c r="G24" s="12"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -3169,13 +3181,13 @@
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="27"/>
       <c r="G25" s="12"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -3185,13 +3197,13 @@
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="27"/>
       <c r="G26" s="12"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -3207,7 +3219,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -3217,17 +3229,17 @@
       <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="56" t="s">
         <v>527</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="12"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -3237,13 +3249,13 @@
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="27"/>
       <c r="G29" s="12"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -3253,13 +3265,13 @@
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="27"/>
       <c r="G30" s="12"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -3269,13 +3281,13 @@
       <c r="C31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="27"/>
       <c r="G31" s="12"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -3291,7 +3303,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -3301,17 +3313,17 @@
       <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="56" t="s">
         <v>528</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="12"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -3321,13 +3333,13 @@
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="27"/>
       <c r="G34" s="12"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -3337,13 +3349,13 @@
       <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="27"/>
       <c r="G35" s="12"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -3353,13 +3365,13 @@
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="27"/>
       <c r="G36" s="12"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -3375,7 +3387,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -3385,17 +3397,17 @@
       <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="56" t="s">
         <v>529</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="12"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -3405,13 +3417,13 @@
       <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="27"/>
       <c r="G39" s="12"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -3421,13 +3433,13 @@
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="27"/>
       <c r="G40" s="12"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -3437,13 +3449,13 @@
       <c r="C41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="27"/>
       <c r="G41" s="12"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -3459,7 +3471,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -3469,17 +3481,17 @@
       <c r="C43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="56" t="s">
         <v>524</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="12"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -3489,13 +3501,13 @@
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="27"/>
       <c r="G44" s="12"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -3505,13 +3517,13 @@
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="27"/>
       <c r="G45" s="12"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -3521,13 +3533,13 @@
       <c r="C46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="27"/>
       <c r="G46" s="12"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -3543,7 +3555,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -3553,17 +3565,17 @@
       <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="56" t="s">
         <v>525</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="12"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -3573,13 +3585,13 @@
       <c r="C49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="27"/>
       <c r="G49" s="12"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -3589,13 +3601,13 @@
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="27"/>
       <c r="G50" s="12"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -3605,13 +3617,13 @@
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="27"/>
       <c r="G51" s="12"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -3627,7 +3639,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -3637,7 +3649,7 @@
       <c r="C53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="56" t="s">
         <v>396</v>
       </c>
       <c r="E53" s="6"/>
@@ -3647,7 +3659,7 @@
       </c>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -3665,7 +3677,7 @@
       </c>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -3675,7 +3687,7 @@
       <c r="C55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="56" t="s">
         <v>397</v>
       </c>
       <c r="E55" s="7"/>
@@ -3685,7 +3697,7 @@
       </c>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -3703,7 +3715,7 @@
       </c>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -3713,7 +3725,7 @@
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="56" t="s">
         <v>398</v>
       </c>
       <c r="E57" s="7"/>
@@ -3723,7 +3735,7 @@
       </c>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -3741,7 +3753,7 @@
       </c>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -3751,7 +3763,7 @@
       <c r="C59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="56" t="s">
         <v>399</v>
       </c>
       <c r="E59" s="7"/>
@@ -3761,7 +3773,7 @@
       </c>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -3779,7 +3791,7 @@
       </c>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -3801,7 +3813,7 @@
       </c>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -3823,7 +3835,7 @@
       </c>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -3833,7 +3845,7 @@
       <c r="C63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="56" t="s">
         <v>401</v>
       </c>
       <c r="E63" s="7"/>
@@ -3843,7 +3855,7 @@
       </c>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -3861,7 +3873,7 @@
       </c>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -3871,7 +3883,7 @@
       <c r="C65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="56" t="s">
         <v>402</v>
       </c>
       <c r="E65" s="7"/>
@@ -3881,7 +3893,7 @@
       </c>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>64</v>
       </c>
@@ -3899,7 +3911,7 @@
       </c>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>65</v>
       </c>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>66</v>
       </c>
@@ -3943,7 +3955,7 @@
       </c>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>67</v>
       </c>
@@ -3953,7 +3965,7 @@
       <c r="C69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="56" t="s">
         <v>405</v>
       </c>
       <c r="E69" s="7"/>
@@ -3963,7 +3975,7 @@
       </c>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>68</v>
       </c>
@@ -3981,7 +3993,7 @@
       </c>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>69</v>
       </c>
@@ -3991,7 +4003,7 @@
       <c r="C71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="56" t="s">
         <v>407</v>
       </c>
       <c r="E71" s="7"/>
@@ -4001,7 +4013,7 @@
       </c>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>70</v>
       </c>
@@ -4019,7 +4031,7 @@
       </c>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>71</v>
       </c>
@@ -4029,7 +4041,7 @@
       <c r="C73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="56" t="s">
         <v>408</v>
       </c>
       <c r="E73" s="7"/>
@@ -4039,7 +4051,7 @@
       </c>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>72</v>
       </c>
@@ -4057,7 +4069,7 @@
       </c>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>73</v>
       </c>
@@ -4067,7 +4079,7 @@
       <c r="C75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="56" t="s">
         <v>409</v>
       </c>
       <c r="E75" s="7"/>
@@ -4077,7 +4089,7 @@
       </c>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>74</v>
       </c>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>75</v>
       </c>
@@ -4105,7 +4117,7 @@
       <c r="C77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="56" t="s">
         <v>410</v>
       </c>
       <c r="E77" s="7"/>
@@ -4115,7 +4127,7 @@
       </c>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>76</v>
       </c>
@@ -4133,7 +4145,7 @@
       </c>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>77</v>
       </c>
@@ -4155,7 +4167,7 @@
       </c>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>78</v>
       </c>
@@ -4177,7 +4189,7 @@
       </c>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>79</v>
       </c>
@@ -4199,7 +4211,7 @@
       </c>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>80</v>
       </c>
@@ -4221,7 +4233,7 @@
       </c>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>81</v>
       </c>
@@ -4231,7 +4243,7 @@
       <c r="C83" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="56" t="s">
         <v>414</v>
       </c>
       <c r="E83" s="7"/>
@@ -4241,7 +4253,7 @@
       </c>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>82</v>
       </c>
@@ -4259,7 +4271,7 @@
       </c>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>83</v>
       </c>
@@ -4269,7 +4281,7 @@
       <c r="C85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="56" t="s">
         <v>416</v>
       </c>
       <c r="E85" s="7"/>
@@ -4279,7 +4291,7 @@
       </c>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>84</v>
       </c>
@@ -4297,7 +4309,7 @@
       </c>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>85</v>
       </c>
@@ -4307,7 +4319,7 @@
       <c r="C87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="56" t="s">
         <v>417</v>
       </c>
       <c r="E87" s="7"/>
@@ -4317,7 +4329,7 @@
       </c>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>86</v>
       </c>
@@ -4335,7 +4347,7 @@
       </c>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>87</v>
       </c>
@@ -4345,7 +4357,7 @@
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="56" t="s">
         <v>418</v>
       </c>
       <c r="E89" s="7"/>
@@ -4355,7 +4367,7 @@
       </c>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>88</v>
       </c>
@@ -4373,7 +4385,7 @@
       </c>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>89</v>
       </c>
@@ -4395,7 +4407,7 @@
       </c>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>90</v>
       </c>
@@ -4417,7 +4429,7 @@
       </c>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>91</v>
       </c>
@@ -4439,7 +4451,7 @@
       </c>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>92</v>
       </c>
@@ -4449,7 +4461,7 @@
       <c r="C94" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="55" t="s">
+      <c r="D94" s="56" t="s">
         <v>421</v>
       </c>
       <c r="E94" s="7"/>
@@ -4459,7 +4471,7 @@
       </c>
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>93</v>
       </c>
@@ -4477,7 +4489,7 @@
       </c>
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>94</v>
       </c>
@@ -4487,7 +4499,7 @@
       <c r="C96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D96" s="56" t="s">
         <v>422</v>
       </c>
       <c r="E96" s="7"/>
@@ -4497,7 +4509,7 @@
       </c>
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>95</v>
       </c>
@@ -4515,7 +4527,7 @@
       </c>
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>96</v>
       </c>
@@ -4525,7 +4537,7 @@
       <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="56" t="s">
         <v>423</v>
       </c>
       <c r="E98" s="7"/>
@@ -4535,7 +4547,7 @@
       </c>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>97</v>
       </c>
@@ -4553,7 +4565,7 @@
       </c>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>98</v>
       </c>
@@ -4575,7 +4587,7 @@
       </c>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>99</v>
       </c>
@@ -4585,7 +4597,7 @@
       <c r="C101" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="56" t="s">
         <v>425</v>
       </c>
       <c r="E101" s="9"/>
@@ -4594,7 +4606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>100</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>101</v>
       </c>
@@ -4621,7 +4633,7 @@
       <c r="C103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="56" t="s">
         <v>426</v>
       </c>
       <c r="E103" s="9"/>
@@ -4630,7 +4642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>102</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>103</v>
       </c>
@@ -4657,7 +4669,7 @@
       <c r="C105" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="56" t="s">
         <v>428</v>
       </c>
       <c r="E105" s="9"/>
@@ -4666,7 +4678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>104</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>105</v>
       </c>
@@ -4693,7 +4705,7 @@
       <c r="C107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="56" t="s">
         <v>427</v>
       </c>
       <c r="E107" s="9"/>
@@ -4702,7 +4714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>106</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>107</v>
       </c>
@@ -4729,7 +4741,7 @@
       <c r="C109" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="56" t="s">
         <v>429</v>
       </c>
       <c r="E109" s="9"/>
@@ -4738,7 +4750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>108</v>
       </c>
@@ -4755,7 +4767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>109</v>
       </c>
@@ -4765,7 +4777,7 @@
       <c r="C111" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="56" t="s">
         <v>430</v>
       </c>
       <c r="E111" s="9"/>
@@ -4774,7 +4786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>110</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>111</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>112</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>113</v>
       </c>
@@ -4850,7 +4862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>114</v>
       </c>
@@ -4860,14 +4872,14 @@
       <c r="C116" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="62" t="s">
+      <c r="D116" s="55" t="s">
         <v>606</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="27"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>115</v>
       </c>
@@ -4888,7 +4900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>116</v>
       </c>
@@ -4905,7 +4917,7 @@
       <c r="F118" s="27"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>117</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>118</v>
       </c>
@@ -4936,14 +4948,14 @@
       <c r="C120" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="62" t="s">
+      <c r="D120" s="55" t="s">
         <v>607</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="27"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>119</v>
       </c>
@@ -4964,7 +4976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>120</v>
       </c>
@@ -4981,7 +4993,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>121</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>122</v>
       </c>
@@ -5010,14 +5022,14 @@
         <v>600</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="62" t="s">
+      <c r="D124" s="55" t="s">
         <v>608</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="27"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>123</v>
       </c>
@@ -5027,7 +5039,7 @@
       <c r="C125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="56" t="s">
         <v>437</v>
       </c>
       <c r="E125" s="9"/>
@@ -5036,7 +5048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>124</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>125</v>
       </c>
@@ -5063,7 +5075,7 @@
       <c r="C127" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="55" t="s">
+      <c r="D127" s="56" t="s">
         <v>438</v>
       </c>
       <c r="E127" s="9"/>
@@ -5072,7 +5084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>126</v>
       </c>
@@ -5089,7 +5101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>127</v>
       </c>
@@ -5099,7 +5111,7 @@
       <c r="C129" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="55" t="s">
+      <c r="D129" s="56" t="s">
         <v>439</v>
       </c>
       <c r="E129" s="9"/>
@@ -5108,7 +5120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>128</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="18">
         <v>129</v>
       </c>
@@ -5135,7 +5147,7 @@
       <c r="C131" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="55" t="s">
+      <c r="D131" s="56" t="s">
         <v>440</v>
       </c>
       <c r="E131" s="9"/>
@@ -5144,7 +5156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
         <v>130</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>131</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>132</v>
       </c>
@@ -5201,7 +5213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>133</v>
       </c>
@@ -5220,7 +5232,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>134</v>
       </c>
@@ -5237,7 +5249,7 @@
       <c r="F136" s="34"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>135</v>
       </c>
@@ -5248,7 +5260,7 @@
       <c r="F137" s="34"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>136</v>
       </c>
@@ -5259,7 +5271,7 @@
       <c r="F138" s="34"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>137</v>
       </c>
@@ -5269,7 +5281,7 @@
       <c r="C139" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="59" t="s">
         <v>442</v>
       </c>
       <c r="E139" s="9" t="s">
@@ -5280,7 +5292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>138</v>
       </c>
@@ -5290,7 +5302,7 @@
       <c r="C140" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="61"/>
+      <c r="D140" s="60"/>
       <c r="E140" s="9" t="s">
         <v>79</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>139</v>
       </c>
@@ -5309,7 +5321,7 @@
       <c r="C141" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="58" t="s">
+      <c r="D141" s="61" t="s">
         <v>443</v>
       </c>
       <c r="E141" s="9" t="s">
@@ -5320,7 +5332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>140</v>
       </c>
@@ -5330,7 +5342,7 @@
       <c r="C142" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="59"/>
+      <c r="D142" s="62"/>
       <c r="E142" s="9" t="s">
         <v>86</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>141</v>
       </c>
@@ -5360,7 +5372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="18">
         <v>142</v>
       </c>
@@ -5381,7 +5393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>143</v>
       </c>
@@ -5402,7 +5414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>144</v>
       </c>
@@ -5423,7 +5435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>145</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>146</v>
       </c>
@@ -5465,7 +5477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>147</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>148</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>149</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>150</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>151</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>152</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="18">
         <v>153</v>
       </c>
@@ -5602,7 +5614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>154</v>
       </c>
@@ -5621,7 +5633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="18">
         <v>155</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="18">
         <v>156</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="18">
         <v>157</v>
       </c>
@@ -5678,7 +5690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="18">
         <v>158</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="18">
         <v>159</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="18">
         <v>160</v>
       </c>
@@ -5735,7 +5747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>161</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>162</v>
       </c>
@@ -5773,7 +5785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="18">
         <v>163</v>
       </c>
@@ -5792,7 +5804,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="18">
         <v>164</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="18">
         <v>165</v>
       </c>
@@ -5830,7 +5842,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>166</v>
       </c>
@@ -5840,7 +5852,7 @@
       <c r="C168" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="55" t="s">
+      <c r="D168" s="56" t="s">
         <v>469</v>
       </c>
       <c r="E168" s="9"/>
@@ -5849,7 +5861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="18">
         <v>167</v>
       </c>
@@ -5866,7 +5878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="18">
         <v>168</v>
       </c>
@@ -5876,7 +5888,7 @@
       <c r="C170" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="55" t="s">
+      <c r="D170" s="56" t="s">
         <v>470</v>
       </c>
       <c r="E170" s="9"/>
@@ -5885,7 +5897,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="18">
         <v>169</v>
       </c>
@@ -5902,7 +5914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="18">
         <v>170</v>
       </c>
@@ -5912,7 +5924,7 @@
       <c r="C172" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="55" t="s">
+      <c r="D172" s="56" t="s">
         <v>471</v>
       </c>
       <c r="E172" s="9"/>
@@ -5921,7 +5933,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="18">
         <v>171</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>172</v>
       </c>
@@ -5959,7 +5971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="18">
         <v>173</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="18">
         <v>174</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="18">
         <v>175</v>
       </c>
@@ -6022,7 +6034,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="18">
         <v>176</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="18">
         <v>177</v>
       </c>
@@ -6062,7 +6074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="18">
         <v>178</v>
       </c>
@@ -6081,7 +6093,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="18">
         <v>179</v>
       </c>
@@ -6102,7 +6114,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="18">
         <v>180</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="18">
         <v>181</v>
       </c>
@@ -6138,7 +6150,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="18">
         <v>182</v>
       </c>
@@ -6157,7 +6169,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="18">
         <v>183</v>
       </c>
@@ -6174,7 +6186,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>184</v>
       </c>
@@ -6193,7 +6205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="18">
         <v>185</v>
       </c>
@@ -6210,7 +6222,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>186</v>
       </c>
@@ -6229,7 +6241,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="18">
         <v>187</v>
       </c>
@@ -6246,7 +6258,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>188</v>
       </c>
@@ -6265,7 +6277,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="18">
         <v>189</v>
       </c>
@@ -6282,7 +6294,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>190</v>
       </c>
@@ -6301,7 +6313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>191</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="18">
         <v>192</v>
       </c>
@@ -6339,7 +6351,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="18">
         <v>193</v>
       </c>
@@ -6360,7 +6372,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>194</v>
       </c>
@@ -6370,7 +6382,7 @@
       <c r="C196" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="55" t="s">
+      <c r="D196" s="56" t="s">
         <v>487</v>
       </c>
       <c r="E196" s="9"/>
@@ -6379,7 +6391,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="18">
         <v>195</v>
       </c>
@@ -6396,7 +6408,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="18">
         <v>196</v>
       </c>
@@ -6406,7 +6418,7 @@
       <c r="C198" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="56" t="s">
         <v>489</v>
       </c>
       <c r="E198" s="32"/>
@@ -6415,7 +6427,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="18">
         <v>197</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="18">
         <v>198</v>
       </c>
@@ -6453,7 +6465,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="18">
         <v>199</v>
       </c>
@@ -6474,7 +6486,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
         <v>200</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="18">
         <v>201</v>
       </c>
@@ -6505,7 +6517,7 @@
       <c r="C203" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="55" t="s">
+      <c r="D203" s="56" t="s">
         <v>492</v>
       </c>
       <c r="E203" s="9"/>
@@ -6514,7 +6526,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>202</v>
       </c>
@@ -6531,7 +6543,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>203</v>
       </c>
@@ -6541,7 +6553,7 @@
       <c r="C205" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="55" t="s">
+      <c r="D205" s="56" t="s">
         <v>496</v>
       </c>
       <c r="E205" s="9"/>
@@ -6550,7 +6562,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>204</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="18">
         <v>205</v>
       </c>
@@ -6577,7 +6589,7 @@
       <c r="C207" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="55" t="s">
+      <c r="D207" s="56" t="s">
         <v>497</v>
       </c>
       <c r="E207" s="9"/>
@@ -6586,7 +6598,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>206</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="18">
         <v>207</v>
       </c>
@@ -6624,7 +6636,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>208</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="18">
         <v>209</v>
       </c>
@@ -6666,7 +6678,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>210</v>
       </c>
@@ -6687,7 +6699,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="18">
         <v>211</v>
       </c>
@@ -6697,7 +6709,7 @@
       <c r="C213" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="55" t="s">
+      <c r="D213" s="56" t="s">
         <v>498</v>
       </c>
       <c r="E213" s="9"/>
@@ -6706,7 +6718,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="18">
         <v>212</v>
       </c>
@@ -6723,7 +6735,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="18">
         <v>213</v>
       </c>
@@ -6733,7 +6745,7 @@
       <c r="C215" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="55" t="s">
+      <c r="D215" s="56" t="s">
         <v>500</v>
       </c>
       <c r="E215" s="9"/>
@@ -6742,7 +6754,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="18">
         <v>214</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="18">
         <v>215</v>
       </c>
@@ -6769,7 +6781,7 @@
       <c r="C217" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="55" t="s">
+      <c r="D217" s="56" t="s">
         <v>501</v>
       </c>
       <c r="E217" s="9"/>
@@ -6778,7 +6790,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="18">
         <v>216</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="18">
         <v>217</v>
       </c>
@@ -6805,7 +6817,7 @@
       <c r="C219" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="55" t="s">
+      <c r="D219" s="56" t="s">
         <v>502</v>
       </c>
       <c r="E219" s="9"/>
@@ -6814,7 +6826,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="18">
         <v>218</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="18">
         <v>219</v>
       </c>
@@ -6841,7 +6853,7 @@
       <c r="C221" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="55" t="s">
+      <c r="D221" s="56" t="s">
         <v>503</v>
       </c>
       <c r="E221" s="9"/>
@@ -6850,7 +6862,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="18">
         <v>220</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="18">
         <v>221</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="18">
         <v>222</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="18">
         <v>223</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18">
         <v>224</v>
       </c>
@@ -6951,7 +6963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="18">
         <v>225</v>
       </c>
@@ -6961,7 +6973,7 @@
       <c r="C227" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="55" t="s">
+      <c r="D227" s="56" t="s">
         <v>506</v>
       </c>
       <c r="E227" s="9"/>
@@ -6970,7 +6982,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="18">
         <v>226</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="18">
         <v>227</v>
       </c>
@@ -6997,7 +7009,7 @@
       <c r="C229" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="55" t="s">
+      <c r="D229" s="56" t="s">
         <v>508</v>
       </c>
       <c r="E229" s="9"/>
@@ -7006,7 +7018,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="18">
         <v>228</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="18">
         <v>229</v>
       </c>
@@ -7033,7 +7045,7 @@
       <c r="C231" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="55" t="s">
+      <c r="D231" s="56" t="s">
         <v>509</v>
       </c>
       <c r="E231" s="9"/>
@@ -7042,7 +7054,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="18">
         <v>230</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="18">
         <v>231</v>
       </c>
@@ -7069,7 +7081,7 @@
       <c r="C233" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="55" t="s">
+      <c r="D233" s="56" t="s">
         <v>510</v>
       </c>
       <c r="E233" s="9"/>
@@ -7078,7 +7090,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
         <v>232</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="18">
         <v>233</v>
       </c>
@@ -7105,7 +7117,7 @@
       <c r="C235" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="55" t="s">
+      <c r="D235" s="56" t="s">
         <v>511</v>
       </c>
       <c r="E235" s="9"/>
@@ -7114,7 +7126,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="18">
         <v>234</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="18">
         <v>235</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="18">
         <v>236</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="18">
         <v>237</v>
       </c>
@@ -7194,7 +7206,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="18">
         <v>238</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="18">
         <v>239</v>
       </c>
@@ -7236,7 +7248,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18">
         <v>240</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="18">
         <v>241</v>
       </c>
@@ -7267,7 +7279,7 @@
       <c r="C243" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="55" t="s">
+      <c r="D243" s="56" t="s">
         <v>518</v>
       </c>
       <c r="E243" s="9"/>
@@ -7276,7 +7288,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="18">
         <v>242</v>
       </c>
@@ -7293,7 +7305,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="18">
         <v>243</v>
       </c>
@@ -7303,7 +7315,7 @@
       <c r="C245" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="55" t="s">
+      <c r="D245" s="56" t="s">
         <v>519</v>
       </c>
       <c r="E245" s="9"/>
@@ -7312,7 +7324,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="18">
         <v>244</v>
       </c>
@@ -7329,7 +7341,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="18">
         <v>245</v>
       </c>
@@ -7339,7 +7351,7 @@
       <c r="C247" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D247" s="55" t="s">
+      <c r="D247" s="56" t="s">
         <v>520</v>
       </c>
       <c r="E247" s="9"/>
@@ -7348,7 +7360,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="18">
         <v>246</v>
       </c>
@@ -7365,7 +7377,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="18">
         <v>247</v>
       </c>
@@ -7386,7 +7398,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>248</v>
       </c>
@@ -7396,7 +7408,7 @@
       <c r="E250" s="16"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="18">
         <v>249</v>
       </c>
@@ -7406,7 +7418,7 @@
       <c r="E251" s="16"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18">
         <v>250</v>
       </c>
@@ -7416,7 +7428,7 @@
       <c r="E252" s="16"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="18">
         <v>251</v>
       </c>
@@ -7426,7 +7438,7 @@
       <c r="E253" s="16"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="18">
         <v>252</v>
       </c>
@@ -7436,7 +7448,7 @@
       <c r="E254" s="16"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="18">
         <v>253</v>
       </c>
@@ -7446,7 +7458,7 @@
       <c r="E255" s="16"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="18">
         <v>254</v>
       </c>
@@ -7456,7 +7468,7 @@
       <c r="E256" s="16"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="18">
         <v>255</v>
       </c>
@@ -7466,82 +7478,51 @@
       <c r="E257" s="16"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="41"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="42"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="42"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="42"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="42"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="D243:D244"/>
     <mergeCell ref="D245:D246"/>
     <mergeCell ref="D247:D248"/>
@@ -7550,25 +7531,56 @@
     <mergeCell ref="D231:D232"/>
     <mergeCell ref="D233:D234"/>
     <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E48:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7579,24 +7591,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="98.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
@@ -7619,7 +7631,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -7628,7 +7640,7 @@
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -7641,13 +7653,13 @@
       <c r="D3" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>610</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -7660,11 +7672,11 @@
       <c r="D4" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -7681,7 +7693,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -7694,13 +7706,13 @@
       <c r="D6" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="56" t="s">
         <v>611</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -7713,11 +7725,11 @@
       <c r="D7" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -7734,7 +7746,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -7747,13 +7759,13 @@
       <c r="D9" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="56" t="s">
         <v>612</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="49"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -7766,10 +7778,10 @@
       <c r="D10" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="49"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -7786,7 +7798,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -7799,13 +7811,13 @@
       <c r="D12" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="56" t="s">
         <v>613</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -7818,11 +7830,11 @@
       <c r="D13" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -7839,7 +7851,7 @@
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -7852,13 +7864,13 @@
       <c r="D15" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="56" t="s">
         <v>614</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -7871,11 +7883,11 @@
       <c r="D16" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -7892,7 +7904,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -7905,13 +7917,13 @@
       <c r="D18" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="56" t="s">
         <v>615</v>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -7924,11 +7936,11 @@
       <c r="D19" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E19" s="56"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -7945,7 +7957,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -7958,13 +7970,13 @@
       <c r="D21" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="56" t="s">
         <v>616</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -7977,11 +7989,11 @@
       <c r="D22" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -7998,7 +8010,7 @@
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -8011,13 +8023,13 @@
       <c r="D24" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="56" t="s">
         <v>617</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="49"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -8030,11 +8042,11 @@
       <c r="D25" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -8053,7 +8065,7 @@
       </c>
       <c r="G26" s="50"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -8066,13 +8078,13 @@
       <c r="D27" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="56" t="s">
         <v>618</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -8085,11 +8097,11 @@
       <c r="D28" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="E28" s="56"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -8106,7 +8118,7 @@
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -8119,13 +8131,13 @@
       <c r="D30" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="56" t="s">
         <v>619</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -8138,11 +8150,11 @@
       <c r="D31" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="E31" s="56"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -8159,7 +8171,7 @@
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -8172,13 +8184,13 @@
       <c r="D33" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="56" t="s">
         <v>620</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -8191,11 +8203,11 @@
       <c r="D34" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -8212,7 +8224,7 @@
       <c r="F35" s="49"/>
       <c r="G35" s="49"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -8225,13 +8237,13 @@
       <c r="D36" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="56" t="s">
         <v>621</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -8244,11 +8256,11 @@
       <c r="D37" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -8259,7 +8271,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="50"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -8272,13 +8284,13 @@
       <c r="D39" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="56" t="s">
         <v>622</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="49"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -8291,11 +8303,11 @@
       <c r="D40" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="E40" s="56"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -8312,7 +8324,7 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -8325,13 +8337,13 @@
       <c r="D42" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="56" t="s">
         <v>623</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -8344,11 +8356,11 @@
       <c r="D43" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -8365,7 +8377,7 @@
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -8378,13 +8390,13 @@
       <c r="D45" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="56" t="s">
         <v>624</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -8397,48 +8409,56 @@
       <c r="D46" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="57"/>
       <c r="F47" s="6"/>
       <c r="G47" s="50"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C48" s="9" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>670</v>
+      </c>
       <c r="C49" s="9" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -8451,7 +8471,7 @@
       <c r="F50" s="49"/>
       <c r="G50" s="49"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -8464,7 +8484,7 @@
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -8477,7 +8497,7 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -8490,7 +8510,7 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -8503,7 +8523,7 @@
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -8516,7 +8536,7 @@
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -8529,7 +8549,7 @@
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -8542,7 +8562,7 @@
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -8555,7 +8575,7 @@
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>57</v>
       </c>
@@ -8568,7 +8588,7 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>58</v>
       </c>
@@ -8581,7 +8601,7 @@
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -8594,7 +8614,7 @@
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -8607,7 +8627,7 @@
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -8620,7 +8640,7 @@
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -8633,7 +8653,7 @@
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -8646,7 +8666,7 @@
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>64</v>
       </c>
@@ -8659,7 +8679,7 @@
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>65</v>
       </c>
@@ -8672,7 +8692,7 @@
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>66</v>
       </c>
@@ -8683,7 +8703,7 @@
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>67</v>
       </c>
@@ -8694,7 +8714,7 @@
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>68</v>
       </c>
@@ -8705,7 +8725,7 @@
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>69</v>
       </c>
@@ -8716,7 +8736,7 @@
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>70</v>
       </c>
@@ -8727,7 +8747,7 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>71</v>
       </c>
@@ -8738,7 +8758,7 @@
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>72</v>
       </c>
@@ -8749,7 +8769,7 @@
       <c r="F74" s="49"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>73</v>
       </c>
@@ -8760,7 +8780,7 @@
       <c r="F75" s="49"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>74</v>
       </c>
@@ -8771,7 +8791,7 @@
       <c r="F76" s="49"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>75</v>
       </c>
@@ -8782,7 +8802,7 @@
       <c r="F77" s="49"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>76</v>
       </c>
@@ -8793,7 +8813,7 @@
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>77</v>
       </c>
@@ -8804,7 +8824,7 @@
       <c r="F79" s="49"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>78</v>
       </c>
@@ -8815,7 +8835,7 @@
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>79</v>
       </c>
@@ -8826,7 +8846,7 @@
       <c r="F81" s="49"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>80</v>
       </c>
@@ -8837,7 +8857,7 @@
       <c r="F82" s="49"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>81</v>
       </c>
@@ -8848,7 +8868,7 @@
       <c r="F83" s="49"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>82</v>
       </c>
@@ -8859,7 +8879,7 @@
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>83</v>
       </c>
@@ -8870,7 +8890,7 @@
       <c r="F85" s="49"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>84</v>
       </c>
@@ -8881,7 +8901,7 @@
       <c r="F86" s="49"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>85</v>
       </c>
@@ -8892,7 +8912,7 @@
       <c r="F87" s="49"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>86</v>
       </c>
@@ -8903,7 +8923,7 @@
       <c r="F88" s="49"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>87</v>
       </c>
@@ -8914,7 +8934,7 @@
       <c r="F89" s="49"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>88</v>
       </c>
@@ -8925,7 +8945,7 @@
       <c r="F90" s="49"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>89</v>
       </c>
@@ -8936,7 +8956,7 @@
       <c r="F91" s="49"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>90</v>
       </c>
@@ -8947,7 +8967,7 @@
       <c r="F92" s="49"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>91</v>
       </c>
@@ -8958,7 +8978,7 @@
       <c r="F93" s="49"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>92</v>
       </c>
@@ -8969,7 +8989,7 @@
       <c r="F94" s="49"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>93</v>
       </c>
@@ -8980,7 +9000,7 @@
       <c r="F95" s="49"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>94</v>
       </c>
@@ -8991,7 +9011,7 @@
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>95</v>
       </c>
@@ -9002,7 +9022,7 @@
       <c r="F97" s="49"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>96</v>
       </c>
@@ -9013,7 +9033,7 @@
       <c r="F98" s="49"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>97</v>
       </c>
@@ -9024,7 +9044,7 @@
       <c r="F99" s="49"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>98</v>
       </c>
@@ -9035,7 +9055,7 @@
       <c r="F100" s="49"/>
       <c r="G100" s="49"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>99</v>
       </c>
@@ -9046,7 +9066,7 @@
       <c r="F101" s="49"/>
       <c r="G101" s="49"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>100</v>
       </c>
@@ -9057,7 +9077,7 @@
       <c r="F102" s="49"/>
       <c r="G102" s="49"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>101</v>
       </c>
@@ -9068,7 +9088,7 @@
       <c r="F103" s="49"/>
       <c r="G103" s="49"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>102</v>
       </c>
@@ -9079,7 +9099,7 @@
       <c r="F104" s="49"/>
       <c r="G104" s="49"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>103</v>
       </c>
@@ -9090,7 +9110,7 @@
       <c r="F105" s="49"/>
       <c r="G105" s="49"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>104</v>
       </c>
@@ -9101,7 +9121,7 @@
       <c r="F106" s="49"/>
       <c r="G106" s="49"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>105</v>
       </c>
@@ -9112,7 +9132,7 @@
       <c r="F107" s="49"/>
       <c r="G107" s="49"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>106</v>
       </c>
@@ -9123,7 +9143,7 @@
       <c r="F108" s="49"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>107</v>
       </c>
@@ -9134,7 +9154,7 @@
       <c r="F109" s="49"/>
       <c r="G109" s="49"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>108</v>
       </c>
@@ -9145,7 +9165,7 @@
       <c r="F110" s="49"/>
       <c r="G110" s="49"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>109</v>
       </c>
@@ -9156,7 +9176,7 @@
       <c r="F111" s="49"/>
       <c r="G111" s="49"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>110</v>
       </c>
@@ -9167,7 +9187,7 @@
       <c r="F112" s="49"/>
       <c r="G112" s="49"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>111</v>
       </c>
@@ -9178,7 +9198,7 @@
       <c r="F113" s="49"/>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>112</v>
       </c>
@@ -9189,7 +9209,7 @@
       <c r="F114" s="49"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>113</v>
       </c>
@@ -9200,7 +9220,7 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>114</v>
       </c>
@@ -9211,7 +9231,7 @@
       <c r="F116" s="49"/>
       <c r="G116" s="49"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>115</v>
       </c>
@@ -9222,7 +9242,7 @@
       <c r="F117" s="49"/>
       <c r="G117" s="49"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>116</v>
       </c>
@@ -9233,7 +9253,7 @@
       <c r="F118" s="49"/>
       <c r="G118" s="49"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>117</v>
       </c>
@@ -9244,7 +9264,7 @@
       <c r="F119" s="49"/>
       <c r="G119" s="49"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>118</v>
       </c>
@@ -9255,7 +9275,7 @@
       <c r="F120" s="49"/>
       <c r="G120" s="49"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>119</v>
       </c>
@@ -9266,7 +9286,7 @@
       <c r="F121" s="49"/>
       <c r="G121" s="49"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>120</v>
       </c>
@@ -9277,7 +9297,7 @@
       <c r="F122" s="49"/>
       <c r="G122" s="49"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>121</v>
       </c>
@@ -9288,7 +9308,7 @@
       <c r="F123" s="49"/>
       <c r="G123" s="49"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>122</v>
       </c>
@@ -9299,7 +9319,7 @@
       <c r="F124" s="49"/>
       <c r="G124" s="49"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>123</v>
       </c>
@@ -9310,7 +9330,7 @@
       <c r="F125" s="49"/>
       <c r="G125" s="49"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>124</v>
       </c>
@@ -9321,7 +9341,7 @@
       <c r="F126" s="49"/>
       <c r="G126" s="49"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>125</v>
       </c>
@@ -9332,7 +9352,7 @@
       <c r="F127" s="49"/>
       <c r="G127" s="49"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>126</v>
       </c>
@@ -9343,7 +9363,7 @@
       <c r="F128" s="49"/>
       <c r="G128" s="49"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>127</v>
       </c>
@@ -9354,7 +9374,7 @@
       <c r="F129" s="49"/>
       <c r="G129" s="49"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>128</v>
       </c>
@@ -9365,7 +9385,7 @@
       <c r="F130" s="49"/>
       <c r="G130" s="49"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="18">
         <v>129</v>
       </c>
@@ -9376,7 +9396,7 @@
       <c r="F131" s="49"/>
       <c r="G131" s="49"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
         <v>130</v>
       </c>
@@ -9387,7 +9407,7 @@
       <c r="F132" s="49"/>
       <c r="G132" s="49"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>131</v>
       </c>
@@ -9398,7 +9418,7 @@
       <c r="F133" s="49"/>
       <c r="G133" s="49"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>132</v>
       </c>
@@ -9409,7 +9429,7 @@
       <c r="F134" s="49"/>
       <c r="G134" s="49"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>133</v>
       </c>
@@ -9420,7 +9440,7 @@
       <c r="F135" s="49"/>
       <c r="G135" s="49"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>134</v>
       </c>
@@ -9431,7 +9451,7 @@
       <c r="F136" s="49"/>
       <c r="G136" s="49"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>135</v>
       </c>
@@ -9442,7 +9462,7 @@
       <c r="F137" s="49"/>
       <c r="G137" s="49"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>136</v>
       </c>
@@ -9453,7 +9473,7 @@
       <c r="F138" s="49"/>
       <c r="G138" s="49"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>137</v>
       </c>
@@ -9464,7 +9484,7 @@
       <c r="F139" s="49"/>
       <c r="G139" s="49"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>138</v>
       </c>
@@ -9475,7 +9495,7 @@
       <c r="F140" s="49"/>
       <c r="G140" s="49"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>139</v>
       </c>
@@ -9486,7 +9506,7 @@
       <c r="F141" s="49"/>
       <c r="G141" s="49"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>140</v>
       </c>
@@ -9497,7 +9517,7 @@
       <c r="F142" s="49"/>
       <c r="G142" s="49"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>141</v>
       </c>
@@ -9508,7 +9528,7 @@
       <c r="F143" s="49"/>
       <c r="G143" s="49"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="18">
         <v>142</v>
       </c>
@@ -9519,7 +9539,7 @@
       <c r="F144" s="49"/>
       <c r="G144" s="49"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>143</v>
       </c>
@@ -9530,7 +9550,7 @@
       <c r="F145" s="49"/>
       <c r="G145" s="49"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>144</v>
       </c>
@@ -9541,7 +9561,7 @@
       <c r="F146" s="49"/>
       <c r="G146" s="49"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>145</v>
       </c>
@@ -9552,7 +9572,7 @@
       <c r="F147" s="49"/>
       <c r="G147" s="49"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>146</v>
       </c>
@@ -9563,7 +9583,7 @@
       <c r="F148" s="49"/>
       <c r="G148" s="49"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>147</v>
       </c>
@@ -9574,7 +9594,7 @@
       <c r="F149" s="49"/>
       <c r="G149" s="49"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>148</v>
       </c>
@@ -9585,7 +9605,7 @@
       <c r="F150" s="49"/>
       <c r="G150" s="49"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>149</v>
       </c>
@@ -9596,7 +9616,7 @@
       <c r="F151" s="49"/>
       <c r="G151" s="49"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>150</v>
       </c>
@@ -9607,7 +9627,7 @@
       <c r="F152" s="49"/>
       <c r="G152" s="49"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>151</v>
       </c>
@@ -9618,7 +9638,7 @@
       <c r="F153" s="49"/>
       <c r="G153" s="49"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>152</v>
       </c>
@@ -9629,7 +9649,7 @@
       <c r="F154" s="49"/>
       <c r="G154" s="49"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="18">
         <v>153</v>
       </c>
@@ -9640,7 +9660,7 @@
       <c r="F155" s="49"/>
       <c r="G155" s="49"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>154</v>
       </c>
@@ -9651,7 +9671,7 @@
       <c r="F156" s="49"/>
       <c r="G156" s="49"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="18">
         <v>155</v>
       </c>
@@ -9662,7 +9682,7 @@
       <c r="F157" s="49"/>
       <c r="G157" s="49"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="18">
         <v>156</v>
       </c>
@@ -9673,7 +9693,7 @@
       <c r="F158" s="49"/>
       <c r="G158" s="49"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="18">
         <v>157</v>
       </c>
@@ -9684,7 +9704,7 @@
       <c r="F159" s="49"/>
       <c r="G159" s="49"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="18">
         <v>158</v>
       </c>
@@ -9695,7 +9715,7 @@
       <c r="F160" s="49"/>
       <c r="G160" s="49"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="18">
         <v>159</v>
       </c>
@@ -9706,7 +9726,7 @@
       <c r="F161" s="49"/>
       <c r="G161" s="49"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="18">
         <v>160</v>
       </c>
@@ -9717,7 +9737,7 @@
       <c r="F162" s="49"/>
       <c r="G162" s="49"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>161</v>
       </c>
@@ -9728,7 +9748,7 @@
       <c r="F163" s="49"/>
       <c r="G163" s="49"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>162</v>
       </c>
@@ -9739,7 +9759,7 @@
       <c r="F164" s="49"/>
       <c r="G164" s="49"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="18">
         <v>163</v>
       </c>
@@ -9750,7 +9770,7 @@
       <c r="F165" s="49"/>
       <c r="G165" s="49"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="18">
         <v>164</v>
       </c>
@@ -9761,7 +9781,7 @@
       <c r="F166" s="49"/>
       <c r="G166" s="49"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="18">
         <v>165</v>
       </c>
@@ -9772,7 +9792,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="49"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>166</v>
       </c>
@@ -9783,7 +9803,7 @@
       <c r="F168" s="49"/>
       <c r="G168" s="49"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="18">
         <v>167</v>
       </c>
@@ -9794,7 +9814,7 @@
       <c r="F169" s="49"/>
       <c r="G169" s="49"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="18">
         <v>168</v>
       </c>
@@ -9805,7 +9825,7 @@
       <c r="F170" s="49"/>
       <c r="G170" s="49"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="18">
         <v>169</v>
       </c>
@@ -9816,7 +9836,7 @@
       <c r="F171" s="49"/>
       <c r="G171" s="49"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="18">
         <v>170</v>
       </c>
@@ -9827,7 +9847,7 @@
       <c r="F172" s="49"/>
       <c r="G172" s="49"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="18">
         <v>171</v>
       </c>
@@ -9838,7 +9858,7 @@
       <c r="F173" s="49"/>
       <c r="G173" s="49"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>172</v>
       </c>
@@ -9849,7 +9869,7 @@
       <c r="F174" s="49"/>
       <c r="G174" s="49"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="18">
         <v>173</v>
       </c>
@@ -9860,7 +9880,7 @@
       <c r="F175" s="49"/>
       <c r="G175" s="49"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="18">
         <v>174</v>
       </c>
@@ -9871,7 +9891,7 @@
       <c r="F176" s="49"/>
       <c r="G176" s="49"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="18">
         <v>175</v>
       </c>
@@ -9882,7 +9902,7 @@
       <c r="F177" s="49"/>
       <c r="G177" s="49"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="18">
         <v>176</v>
       </c>
@@ -9893,7 +9913,7 @@
       <c r="F178" s="49"/>
       <c r="G178" s="49"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="18">
         <v>177</v>
       </c>
@@ -9904,7 +9924,7 @@
       <c r="F179" s="49"/>
       <c r="G179" s="49"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="18">
         <v>178</v>
       </c>
@@ -9915,7 +9935,7 @@
       <c r="F180" s="49"/>
       <c r="G180" s="49"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="18">
         <v>179</v>
       </c>
@@ -9926,7 +9946,7 @@
       <c r="F181" s="49"/>
       <c r="G181" s="49"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="18">
         <v>180</v>
       </c>
@@ -9937,7 +9957,7 @@
       <c r="F182" s="49"/>
       <c r="G182" s="49"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="18">
         <v>181</v>
       </c>
@@ -9948,7 +9968,7 @@
       <c r="F183" s="49"/>
       <c r="G183" s="49"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="18">
         <v>182</v>
       </c>
@@ -9959,7 +9979,7 @@
       <c r="F184" s="49"/>
       <c r="G184" s="49"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="18">
         <v>183</v>
       </c>
@@ -9970,7 +9990,7 @@
       <c r="F185" s="49"/>
       <c r="G185" s="49"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>184</v>
       </c>
@@ -9981,7 +10001,7 @@
       <c r="F186" s="49"/>
       <c r="G186" s="49"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="18">
         <v>185</v>
       </c>
@@ -9992,7 +10012,7 @@
       <c r="F187" s="49"/>
       <c r="G187" s="49"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>186</v>
       </c>
@@ -10003,7 +10023,7 @@
       <c r="F188" s="49"/>
       <c r="G188" s="49"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="18">
         <v>187</v>
       </c>
@@ -10014,7 +10034,7 @@
       <c r="F189" s="49"/>
       <c r="G189" s="49"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>188</v>
       </c>
@@ -10025,7 +10045,7 @@
       <c r="F190" s="49"/>
       <c r="G190" s="49"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="18">
         <v>189</v>
       </c>
@@ -10036,7 +10056,7 @@
       <c r="F191" s="49"/>
       <c r="G191" s="49"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>190</v>
       </c>
@@ -10047,7 +10067,7 @@
       <c r="F192" s="49"/>
       <c r="G192" s="49"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>191</v>
       </c>
@@ -10058,7 +10078,7 @@
       <c r="F193" s="49"/>
       <c r="G193" s="49"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="18">
         <v>192</v>
       </c>
@@ -10069,7 +10089,7 @@
       <c r="F194" s="49"/>
       <c r="G194" s="49"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="18">
         <v>193</v>
       </c>
@@ -10080,7 +10100,7 @@
       <c r="F195" s="49"/>
       <c r="G195" s="49"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>194</v>
       </c>
@@ -10091,7 +10111,7 @@
       <c r="F196" s="49"/>
       <c r="G196" s="49"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="18">
         <v>195</v>
       </c>
@@ -10102,7 +10122,7 @@
       <c r="F197" s="49"/>
       <c r="G197" s="49"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="18">
         <v>196</v>
       </c>
@@ -10113,7 +10133,7 @@
       <c r="F198" s="49"/>
       <c r="G198" s="49"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="18">
         <v>197</v>
       </c>
@@ -10124,7 +10144,7 @@
       <c r="F199" s="49"/>
       <c r="G199" s="49"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="18">
         <v>198</v>
       </c>
@@ -10135,7 +10155,7 @@
       <c r="F200" s="49"/>
       <c r="G200" s="49"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="18">
         <v>199</v>
       </c>
@@ -10146,7 +10166,7 @@
       <c r="F201" s="49"/>
       <c r="G201" s="49"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
         <v>200</v>
       </c>
@@ -10157,7 +10177,7 @@
       <c r="F202" s="49"/>
       <c r="G202" s="49"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="18">
         <v>201</v>
       </c>
@@ -10168,7 +10188,7 @@
       <c r="F203" s="49"/>
       <c r="G203" s="49"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>202</v>
       </c>
@@ -10179,7 +10199,7 @@
       <c r="F204" s="49"/>
       <c r="G204" s="49"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>203</v>
       </c>
@@ -10190,7 +10210,7 @@
       <c r="F205" s="49"/>
       <c r="G205" s="49"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>204</v>
       </c>
@@ -10201,7 +10221,7 @@
       <c r="F206" s="49"/>
       <c r="G206" s="49"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="18">
         <v>205</v>
       </c>
@@ -10212,7 +10232,7 @@
       <c r="F207" s="49"/>
       <c r="G207" s="49"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>206</v>
       </c>
@@ -10223,7 +10243,7 @@
       <c r="F208" s="49"/>
       <c r="G208" s="49"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="18">
         <v>207</v>
       </c>
@@ -10234,7 +10254,7 @@
       <c r="F209" s="49"/>
       <c r="G209" s="49"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>208</v>
       </c>
@@ -10245,7 +10265,7 @@
       <c r="F210" s="49"/>
       <c r="G210" s="49"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="18">
         <v>209</v>
       </c>
@@ -10256,7 +10276,7 @@
       <c r="F211" s="49"/>
       <c r="G211" s="49"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>210</v>
       </c>
@@ -10267,7 +10287,7 @@
       <c r="F212" s="49"/>
       <c r="G212" s="49"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="18">
         <v>211</v>
       </c>
@@ -10278,7 +10298,7 @@
       <c r="F213" s="49"/>
       <c r="G213" s="49"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="18">
         <v>212</v>
       </c>
@@ -10289,7 +10309,7 @@
       <c r="F214" s="49"/>
       <c r="G214" s="49"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="18">
         <v>213</v>
       </c>
@@ -10300,7 +10320,7 @@
       <c r="F215" s="49"/>
       <c r="G215" s="49"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="18">
         <v>214</v>
       </c>
@@ -10311,7 +10331,7 @@
       <c r="F216" s="49"/>
       <c r="G216" s="49"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="18">
         <v>215</v>
       </c>
@@ -10322,7 +10342,7 @@
       <c r="F217" s="49"/>
       <c r="G217" s="49"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="18">
         <v>216</v>
       </c>
@@ -10333,7 +10353,7 @@
       <c r="F218" s="49"/>
       <c r="G218" s="49"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="18">
         <v>217</v>
       </c>
@@ -10344,7 +10364,7 @@
       <c r="F219" s="49"/>
       <c r="G219" s="49"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="18">
         <v>218</v>
       </c>
@@ -10355,7 +10375,7 @@
       <c r="F220" s="49"/>
       <c r="G220" s="49"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="18">
         <v>219</v>
       </c>
@@ -10366,7 +10386,7 @@
       <c r="F221" s="49"/>
       <c r="G221" s="49"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="18">
         <v>220</v>
       </c>
@@ -10377,7 +10397,7 @@
       <c r="F222" s="49"/>
       <c r="G222" s="49"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="18">
         <v>221</v>
       </c>
@@ -10388,7 +10408,7 @@
       <c r="F223" s="49"/>
       <c r="G223" s="49"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="18">
         <v>222</v>
       </c>
@@ -10399,7 +10419,7 @@
       <c r="F224" s="49"/>
       <c r="G224" s="49"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="18">
         <v>223</v>
       </c>
@@ -10410,7 +10430,7 @@
       <c r="F225" s="49"/>
       <c r="G225" s="49"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="18">
         <v>224</v>
       </c>
@@ -10421,7 +10441,7 @@
       <c r="F226" s="49"/>
       <c r="G226" s="49"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="18">
         <v>225</v>
       </c>
@@ -10432,7 +10452,7 @@
       <c r="F227" s="49"/>
       <c r="G227" s="49"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="18">
         <v>226</v>
       </c>
@@ -10443,7 +10463,7 @@
       <c r="F228" s="49"/>
       <c r="G228" s="49"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="18">
         <v>227</v>
       </c>
@@ -10454,7 +10474,7 @@
       <c r="F229" s="49"/>
       <c r="G229" s="49"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="18">
         <v>228</v>
       </c>
@@ -10465,7 +10485,7 @@
       <c r="F230" s="49"/>
       <c r="G230" s="49"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="18">
         <v>229</v>
       </c>
@@ -10476,7 +10496,7 @@
       <c r="F231" s="49"/>
       <c r="G231" s="49"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="18">
         <v>230</v>
       </c>
@@ -10487,7 +10507,7 @@
       <c r="F232" s="49"/>
       <c r="G232" s="49"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="18">
         <v>231</v>
       </c>
@@ -10498,7 +10518,7 @@
       <c r="F233" s="49"/>
       <c r="G233" s="49"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
         <v>232</v>
       </c>
@@ -10509,7 +10529,7 @@
       <c r="F234" s="49"/>
       <c r="G234" s="49"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="18">
         <v>233</v>
       </c>
@@ -10520,7 +10540,7 @@
       <c r="F235" s="49"/>
       <c r="G235" s="49"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="18">
         <v>234</v>
       </c>
@@ -10531,7 +10551,7 @@
       <c r="F236" s="49"/>
       <c r="G236" s="49"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="18">
         <v>235</v>
       </c>
@@ -10542,7 +10562,7 @@
       <c r="F237" s="49"/>
       <c r="G237" s="49"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="18">
         <v>236</v>
       </c>
@@ -10553,7 +10573,7 @@
       <c r="F238" s="49"/>
       <c r="G238" s="49"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="18">
         <v>237</v>
       </c>
@@ -10564,7 +10584,7 @@
       <c r="F239" s="49"/>
       <c r="G239" s="49"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="18">
         <v>238</v>
       </c>
@@ -10575,7 +10595,7 @@
       <c r="F240" s="49"/>
       <c r="G240" s="49"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="18">
         <v>239</v>
       </c>
@@ -10586,7 +10606,7 @@
       <c r="F241" s="49"/>
       <c r="G241" s="49"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="18">
         <v>240</v>
       </c>
@@ -10597,7 +10617,7 @@
       <c r="F242" s="49"/>
       <c r="G242" s="49"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="18">
         <v>241</v>
       </c>
@@ -10608,7 +10628,7 @@
       <c r="F243" s="49"/>
       <c r="G243" s="49"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="18">
         <v>242</v>
       </c>
@@ -10619,7 +10639,7 @@
       <c r="F244" s="49"/>
       <c r="G244" s="49"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="18">
         <v>243</v>
       </c>
@@ -10630,7 +10650,7 @@
       <c r="F245" s="49"/>
       <c r="G245" s="49"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="18">
         <v>244</v>
       </c>
@@ -10641,7 +10661,7 @@
       <c r="F246" s="49"/>
       <c r="G246" s="49"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="18">
         <v>245</v>
       </c>
@@ -10652,7 +10672,7 @@
       <c r="F247" s="49"/>
       <c r="G247" s="49"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="18">
         <v>246</v>
       </c>
@@ -10663,7 +10683,7 @@
       <c r="F248" s="49"/>
       <c r="G248" s="49"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="18">
         <v>247</v>
       </c>
@@ -10674,7 +10694,7 @@
       <c r="F249" s="49"/>
       <c r="G249" s="49"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>248</v>
       </c>
@@ -10685,7 +10705,7 @@
       <c r="F250" s="49"/>
       <c r="G250" s="49"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="18">
         <v>249</v>
       </c>
@@ -10696,7 +10716,7 @@
       <c r="F251" s="49"/>
       <c r="G251" s="49"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="18">
         <v>250</v>
       </c>
@@ -10707,7 +10727,7 @@
       <c r="F252" s="49"/>
       <c r="G252" s="49"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="18">
         <v>251</v>
       </c>
@@ -10718,7 +10738,7 @@
       <c r="F253" s="49"/>
       <c r="G253" s="49"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="18">
         <v>252</v>
       </c>
@@ -10729,7 +10749,7 @@
       <c r="F254" s="49"/>
       <c r="G254" s="49"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="18">
         <v>253</v>
       </c>
@@ -10740,7 +10760,7 @@
       <c r="F255" s="49"/>
       <c r="G255" s="49"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="18">
         <v>254</v>
       </c>
@@ -10751,7 +10771,7 @@
       <c r="F256" s="49"/>
       <c r="G256" s="49"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="18">
         <v>255</v>
       </c>
@@ -10764,6 +10784,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E45:E47"/>
@@ -10773,12 +10799,6 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
